--- a/جدول إختلافات القراء.xlsx
+++ b/جدول إختلافات القراء.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amr Saber\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amr Saber\Documents\GitHub\QiraAat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986807C1-1882-47CD-976C-33C5029D53A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F6A584-328F-4C4B-8F25-DE7A2A7F9F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19275" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{05251348-2C78-4EB4-8303-7D5EDAD52AE6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="840">
   <si>
     <t>خلف البزار</t>
   </si>
@@ -2575,7 +2575,151 @@
     <t>زُبوراً</t>
   </si>
   <si>
-    <t>ض114</t>
+    <t>وَلَا يَجْرِمَنَّكُمْ شَنَـَٔانُ قَوْمٍ أَن صَدُّوكُمْ عَنِ ٱلْمَسْجِدِ ٱلْحَرَامِ أَن تَعْتَدُوا۟ ۘ</t>
+  </si>
+  <si>
+    <t>شَنْـَٔان</t>
+  </si>
+  <si>
+    <t>إن</t>
+  </si>
+  <si>
+    <t>وَلَا تَعَاوَنُوا۟ عَلَى ٱلْإِثْمِ وَٱلْعُدْوَٰنِ ۚ</t>
+  </si>
+  <si>
+    <t>ولآ تّعاونوا</t>
+  </si>
+  <si>
+    <t>حُرِّمَتْ عَلَيْكُمُ ٱلْمَيْتَةُ</t>
+  </si>
+  <si>
+    <t>فَمَنِ ٱضْطُرَّ فِى مَخْمَصَةٍ غَيْرَ مُتَجَانِفٍۢ لِّإِثْمٍۢ ۙ فَإِنَّ ٱللَّهَ غَفُورٌۭ رَّحِيمٌۭ</t>
+  </si>
+  <si>
+    <t>وَٱلْمُحْصَنَـٰتُ مِنَ ٱلْمُؤْمِنَـٰتِ وَٱلْمُحْصَنَـٰتُ مِنَ ٱلَّذِينَ أُوتُوا۟ ٱلْكِتَـٰبَ مِن قَبْلِكُمْ</t>
+  </si>
+  <si>
+    <t>ٱلْيَوْمَ يَئِسَ ٱلَّذِينَ كَفَرُوا۟ مِن دِينِكُمْ فَلَا تَخْشَوْهُمْ وَٱخْشَوْنِ ۚ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">واخشونِۦ </t>
+  </si>
+  <si>
+    <t>وَٱمْسَحُوا۟ بِرُءُوسِكُمْ وَأَرْجُلَكُمْ إِلَى ٱلْكَعْبَيْنِ ۚ</t>
+  </si>
+  <si>
+    <t>وأرجلِكم</t>
+  </si>
+  <si>
+    <t>أَوْ لَـٰمَسْتُمُ ٱلنِّسَآءَ فَلَمْ تَجِدُوا۟ مَآءًۭ فَتَيَمَّمُوا۟</t>
+  </si>
+  <si>
+    <t>وَلَا يَجْرِمَنَّكُمْ شَنَـَٔانُ قَوْمٍ عَلَىٰٓ أَلَّا تَعْدِلُوا۟ ۚ</t>
+  </si>
+  <si>
+    <t>فَبِمَا نَقْضِهِم مِّيثَـٰقَهُمْ لَعَنَّـٰهُمْ وَجَعَلْنَا قُلُوبَهُمْ قَـٰسِيَةًۭ ۖ</t>
+  </si>
+  <si>
+    <t>قَسِيَّة</t>
+  </si>
+  <si>
+    <t>يَـٰٓأَيُّهَا ٱلَّذِينَ ءَامَنُوا۟ ٱذْكُرُوا۟ نِعْمَتَ ٱللَّهِ عَلَيْكُمْ إِذْ هَمَّ قَوْمٌ أَن يَبْسُطُوٓا۟ إِلَيْكُمْ أَيْدِيَهُمْ</t>
+  </si>
+  <si>
+    <t>يَهْدِى بِهِ ٱللَّهُ مَنِ ٱتَّبَعَ رِضْوَٰنَهُۥ سُبُلَ ٱلسَّلَـٰمِ</t>
+  </si>
+  <si>
+    <t>لَئِنۢ بَسَطتَ إِلَىَّ يَدَكَ لِتَقْتُلَنِى مَآ أَنَا۠ بِبَاسِطٍۢ يَدِىَ إِلَيْكَ لِأَقْتُلَكَ ۖ</t>
+  </si>
+  <si>
+    <t>يدى</t>
+  </si>
+  <si>
+    <t>يَـٰوَيْلَتَىٰٓ</t>
+  </si>
+  <si>
+    <t>الوقف بهاء السكت مع الإشباع</t>
+  </si>
+  <si>
+    <t>مِنْ أَجْلِ ذَٰلِكَ كَتَبْنَا عَلَىٰ بَنِىٓ إِسْرَٰٓءِيلَ</t>
+  </si>
+  <si>
+    <t>منِ اجل</t>
+  </si>
+  <si>
+    <t>وَلَقَدْ جَآءَتْهُمْ رُسُلُنَا بِٱلْبَيِّنَـٰتِ</t>
+  </si>
+  <si>
+    <t>رسْلنا</t>
+  </si>
+  <si>
+    <t>۞ يَـٰٓأَيُّهَا ٱلرَّسُولُ لَا يَحْزُنكَ ٱلَّذِينَ يُسَـٰرِعُونَ فِى ٱلْكُفْرِ</t>
+  </si>
+  <si>
+    <t>يُحزِنك</t>
+  </si>
+  <si>
+    <t>سَمَّـٰعُونَ لِلْكَذِبِ أَكَّـٰلُونَ لِلسُّحْتِ ۚ</t>
+  </si>
+  <si>
+    <t>للسحُت</t>
+  </si>
+  <si>
+    <t>وَكَتَبْنَا عَلَيْهِمْ فِيهَآ أَنَّ ٱلنَّفْسَ بِٱلنَّفْسِ وَٱلْعَيْنَ بِٱلْعَيْنِ</t>
+  </si>
+  <si>
+    <t>وَٱلْأَنفَ بِٱلْأَنفِ</t>
+  </si>
+  <si>
+    <t>وَٱلْأُذُنَ بِٱلْأُذُنِ</t>
+  </si>
+  <si>
+    <t>وَٱلسِّنَّ بِٱلسِّنِّ</t>
+  </si>
+  <si>
+    <t>وَٱلْجُرُوحَ قِصَاصٌۭ ۚ</t>
+  </si>
+  <si>
+    <t>والعينُ</t>
+  </si>
+  <si>
+    <t>والأنفُ</t>
+  </si>
+  <si>
+    <t>والسنُّ</t>
+  </si>
+  <si>
+    <t>والجروحُ</t>
+  </si>
+  <si>
+    <t>والأذُنُ</t>
+  </si>
+  <si>
+    <t>والأذْنَ</t>
+  </si>
+  <si>
+    <t>فَلَا تَخْشَوُا۟ ٱلنَّاسَ وَٱخْشَوْنِ وَلَا تَشْتَرُوا۟ بِـَٔايَـٰتِى ثَمَنًۭا قَلِيلًۭا ۚ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">واخشونِى </t>
+  </si>
+  <si>
+    <t>وَلْيَحْكُمْ أَهْلُ ٱلْإِنجِيلِ بِمَآ أَنزَلَ ٱللَّهُ فِيهِ ۚ</t>
+  </si>
+  <si>
+    <t>ولِيحكمَ</t>
+  </si>
+  <si>
+    <t>وَأَنِ ٱحْكُم بَيْنَهُم بِمَآ أَنزَلَ ٱللَّهُ وَلَا تَتَّبِعْ أَهْوَآءَهُمْ</t>
+  </si>
+  <si>
+    <t>وأنُ</t>
+  </si>
+  <si>
+    <t>أَفَحُكْمَ ٱلْجَـٰهِلِيَّةِ يَبْغُونَ ۚ وَمَنْ أَحْسَنُ مِنَ ٱللَّهِ حُكْمًۭا لِّقَوْمٍۢ يُوقِنُونَ</t>
+  </si>
+  <si>
+    <t>ص125</t>
   </si>
 </sst>
 </file>
@@ -2880,11 +3024,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3271,54 +3415,54 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38" t="s">
+      <c r="J2" s="37"/>
+      <c r="K2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38" t="s">
+      <c r="L2" s="37"/>
+      <c r="M2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38" t="s">
+      <c r="N2" s="37"/>
+      <c r="O2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38" t="s">
+      <c r="R2" s="37"/>
+      <c r="S2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38" t="s">
+      <c r="T2" s="37"/>
+      <c r="U2" s="37" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="38"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
@@ -3376,7 +3520,7 @@
       <c r="T3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="38"/>
+      <c r="U3" s="37"/>
     </row>
     <row r="4" spans="1:21" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1" t="s">
@@ -3474,10 +3618,10 @@
         <v>40</v>
       </c>
       <c r="H6" s="36"/>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="37"/>
+      <c r="J6" s="38"/>
       <c r="K6" s="36" t="s">
         <v>39</v>
       </c>
@@ -3520,10 +3664,10 @@
       <c r="L7" s="36"/>
       <c r="M7" s="36"/>
       <c r="N7" s="36"/>
-      <c r="O7" s="37" t="s">
+      <c r="O7" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="37"/>
+      <c r="P7" s="38"/>
       <c r="Q7" s="36" t="s">
         <v>42</v>
       </c>
@@ -3553,23 +3697,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="K8:T8"/>
@@ -3585,6 +3712,23 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:P5"/>
     <mergeCell ref="G6:H6"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" orientation="landscape" r:id="rId1"/>
@@ -3593,12 +3737,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD83332C-D38C-40A7-AE68-82D7A06EF479}">
-  <dimension ref="A1:V291"/>
+  <dimension ref="A1:V318"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="F288" sqref="F288"/>
+      <selection pane="bottomLeft" activeCell="P314" sqref="P314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="1.35"/>
@@ -3827,7 +3971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="5" spans="1:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="D5" s="22" t="s">
         <v>63</v>
       </c>
@@ -3850,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.5">
       <c r="D6" s="22" t="s">
         <v>65</v>
       </c>
@@ -3870,7 +4014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.5">
       <c r="N7" s="21" t="s">
         <v>66</v>
       </c>
@@ -3899,7 +4043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C8" s="22" t="s">
         <v>69</v>
       </c>
@@ -3946,7 +4090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.5">
       <c r="D9" s="22" t="s">
         <v>82</v>
       </c>
@@ -3961,7 +4105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C10" s="21" t="s">
         <v>84</v>
       </c>
@@ -3980,7 +4124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.5">
       <c r="I11" s="21" t="s">
         <v>94</v>
       </c>
@@ -3997,7 +4141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="62.1" x14ac:dyDescent="1.35">
+    <row r="12" spans="1:22" ht="41.7" x14ac:dyDescent="0.5">
       <c r="G12" s="22"/>
       <c r="P12" s="25" t="s">
         <v>523</v>
@@ -4015,7 +4159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C13" s="21" t="s">
         <v>106</v>
       </c>
@@ -4034,7 +4178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.5">
       <c r="G14" s="22" t="s">
         <v>77</v>
       </c>
@@ -4051,7 +4195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C15" s="21" t="s">
         <v>109</v>
       </c>
@@ -4081,7 +4225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.5">
       <c r="B16" s="22"/>
       <c r="C16" s="21" t="s">
         <v>117</v>
@@ -4113,7 +4257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+    <row r="17" spans="2:22" ht="41.7" x14ac:dyDescent="0.5">
       <c r="G17" s="21" t="s">
         <v>77</v>
       </c>
@@ -4133,7 +4277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C18" s="22"/>
       <c r="E18" s="21" t="s">
         <v>124</v>
@@ -4163,7 +4307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+    <row r="19" spans="2:22" ht="41.7" x14ac:dyDescent="0.5">
       <c r="C19" s="22"/>
       <c r="E19" s="22"/>
       <c r="G19" s="22"/>
@@ -4183,7 +4327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="20" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="G20" s="22"/>
       <c r="P20" s="21" t="s">
         <v>140</v>
@@ -4201,7 +4345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
       <c r="E21" s="21" t="s">
@@ -4222,7 +4366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.5">
       <c r="D22" s="22" t="s">
         <v>122</v>
       </c>
@@ -4240,7 +4384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.5">
       <c r="E23" s="21" t="s">
         <v>145</v>
       </c>
@@ -4269,7 +4413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.5">
       <c r="G24" s="21" t="s">
         <v>148</v>
       </c>
@@ -4298,7 +4442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C25" s="21" t="s">
         <v>150</v>
       </c>
@@ -4329,7 +4473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B26" s="20" t="s">
         <v>154</v>
       </c>
@@ -4380,7 +4524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.5">
       <c r="F27" s="21"/>
       <c r="I27" s="21" t="s">
         <v>156</v>
@@ -4398,7 +4542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B28" s="20" t="s">
         <v>157</v>
       </c>
@@ -4437,7 +4581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="29" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="C29" s="22" t="s">
         <v>140</v>
       </c>
@@ -4470,7 +4614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C30" s="22"/>
       <c r="P30" s="21" t="s">
         <v>160</v>
@@ -4488,7 +4632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C31" s="22" t="s">
         <v>167</v>
       </c>
@@ -4517,7 +4661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="32" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="C32" s="21" t="s">
         <v>175</v>
       </c>
@@ -4535,7 +4679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.5">
       <c r="G33" s="21" t="s">
         <v>180</v>
       </c>
@@ -4568,7 +4712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B34" s="20" t="s">
         <v>182</v>
       </c>
@@ -4623,7 +4767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.5">
       <c r="G35" s="22" t="s">
         <v>184</v>
       </c>
@@ -4652,7 +4796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="36" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B36" s="22"/>
       <c r="C36" s="21" t="s">
         <v>167</v>
@@ -4684,7 +4828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="37" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="E37" s="22"/>
@@ -4708,7 +4852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="38" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="E38" s="22"/>
       <c r="L38" s="22"/>
       <c r="N38" s="21" t="s">
@@ -4734,7 +4878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
       <c r="E39" s="21" t="s">
@@ -4756,7 +4900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C40" s="22"/>
       <c r="I40" s="22"/>
       <c r="L40" s="21" t="s">
@@ -4775,7 +4919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.5">
       <c r="L41" s="21" t="s">
         <v>195</v>
       </c>
@@ -4792,7 +4936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C42" s="21" t="s">
         <v>197</v>
       </c>
@@ -4815,7 +4959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:22" ht="103.5" x14ac:dyDescent="1.35">
+    <row r="43" spans="2:22" ht="55.5" x14ac:dyDescent="0.5">
       <c r="E43" s="19"/>
       <c r="L43" s="25" t="s">
         <v>201</v>
@@ -4834,7 +4978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B44" s="20" t="s">
         <v>207</v>
       </c>
@@ -4893,7 +5037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.5">
       <c r="L45" s="21" t="s">
         <v>203</v>
       </c>
@@ -4916,7 +5060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B46" s="20" t="s">
         <v>211</v>
       </c>
@@ -4968,7 +5112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.5">
       <c r="L47" s="21" t="s">
         <v>205</v>
       </c>
@@ -4986,7 +5130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C48" s="21" t="s">
         <v>213</v>
       </c>
@@ -5016,7 +5160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.5">
       <c r="E49" s="22" t="s">
         <v>215</v>
       </c>
@@ -5046,7 +5190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C50" s="21" t="s">
         <v>217</v>
       </c>
@@ -5089,7 +5233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="51" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="C51" s="22"/>
       <c r="D51" s="22" t="s">
         <v>526</v>
@@ -5133,7 +5277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="52" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B52" s="21"/>
       <c r="C52" s="21" t="s">
         <v>175</v>
@@ -5172,7 +5316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.5">
       <c r="L53" s="21" t="s">
         <v>226</v>
       </c>
@@ -5189,7 +5333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.5">
       <c r="D54" s="21"/>
       <c r="N54" s="21" t="s">
         <v>140</v>
@@ -5207,7 +5351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
       <c r="E55" s="22"/>
@@ -5225,7 +5369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.5">
       <c r="I56" s="22"/>
       <c r="P56" s="21" t="s">
         <v>232</v>
@@ -5243,7 +5387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B57" s="22"/>
       <c r="C57" s="21" t="s">
         <v>234</v>
@@ -5265,7 +5409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B58" s="20" t="s">
         <v>236</v>
       </c>
@@ -5299,7 +5443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B59" s="20" t="s">
         <v>238</v>
       </c>
@@ -5326,7 +5470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B60" s="22"/>
       <c r="C60" s="21" t="s">
         <v>241</v>
@@ -5359,7 +5503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B61" s="22"/>
       <c r="G61" s="22"/>
       <c r="I61" s="22"/>
@@ -5379,7 +5523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B62" s="22"/>
       <c r="C62" s="21" t="s">
         <v>244</v>
@@ -5405,7 +5549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C63" s="22"/>
       <c r="E63" s="21" t="s">
         <v>248</v>
@@ -5425,7 +5569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B64" s="20" t="s">
         <v>251</v>
       </c>
@@ -5469,7 +5613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C65" s="22"/>
       <c r="D65" s="22" t="s">
         <v>255</v>
@@ -5484,7 +5628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B66" s="20" t="s">
         <v>257</v>
       </c>
@@ -5543,7 +5687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.5">
       <c r="G67" s="22"/>
       <c r="I67" s="22"/>
       <c r="L67" s="21" t="s">
@@ -5569,7 +5713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B68" s="22" t="s">
         <v>261</v>
       </c>
@@ -5608,7 +5752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.5">
       <c r="E69" s="21" t="s">
         <v>264</v>
       </c>
@@ -5639,7 +5783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B70" s="20" t="s">
         <v>266</v>
       </c>
@@ -5668,7 +5812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C71" s="21" t="s">
         <v>270</v>
       </c>
@@ -5689,7 +5833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C72" s="21" t="s">
         <v>273</v>
       </c>
@@ -5725,7 +5869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.5">
       <c r="E73" s="22"/>
       <c r="R73" s="21" t="s">
         <v>276</v>
@@ -5740,7 +5884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.5">
       <c r="L74" s="21" t="s">
         <v>259</v>
       </c>
@@ -5763,7 +5907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B75" s="20" t="s">
         <v>283</v>
       </c>
@@ -5790,7 +5934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B76" s="20" t="s">
         <v>284</v>
       </c>
@@ -5818,7 +5962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B77" s="20" t="s">
         <v>285</v>
       </c>
@@ -5844,7 +5988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C78" s="21" t="s">
         <v>289</v>
       </c>
@@ -5880,7 +6024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C79" s="21" t="s">
         <v>293</v>
       </c>
@@ -5911,7 +6055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.5">
       <c r="E80" s="21" t="s">
         <v>297</v>
       </c>
@@ -5947,7 +6091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B81" s="22"/>
       <c r="C81" s="22"/>
       <c r="E81" s="22" t="s">
@@ -5971,7 +6115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B82" s="22" t="s">
         <v>301</v>
       </c>
@@ -6011,7 +6155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C83" s="22"/>
       <c r="E83" s="21" t="s">
         <v>304</v>
@@ -6031,7 +6175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="84" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="E84" s="22"/>
       <c r="L84" s="22"/>
       <c r="R84" s="22" t="s">
@@ -6050,7 +6194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C85" s="21" t="s">
         <v>312</v>
       </c>
@@ -6087,7 +6231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C86" s="22"/>
       <c r="E86" s="22"/>
       <c r="I86" s="21" t="s">
@@ -6109,7 +6253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.5">
       <c r="E87" s="22"/>
       <c r="N87" s="22" t="s">
         <v>310</v>
@@ -6128,7 +6272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B88" s="22"/>
       <c r="C88" s="22"/>
       <c r="G88" s="22"/>
@@ -6147,7 +6291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B89" s="20" t="s">
         <v>314</v>
       </c>
@@ -6179,7 +6323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="90" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="C90" s="21" t="s">
         <v>319</v>
       </c>
@@ -6211,7 +6355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="91" spans="2:22" x14ac:dyDescent="0.5">
       <c r="E91" s="21" t="s">
         <v>321</v>
       </c>
@@ -6241,7 +6385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+    <row r="92" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="N92" s="22"/>
       <c r="P92" s="21" t="s">
         <v>324</v>
@@ -6259,7 +6403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="93" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B93" s="20" t="s">
         <v>328</v>
       </c>
@@ -6285,7 +6429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="94" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="C94" s="21" t="s">
         <v>330</v>
       </c>
@@ -6323,7 +6467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="95" spans="2:22" x14ac:dyDescent="0.5">
       <c r="D95" s="22" t="s">
         <v>332</v>
       </c>
@@ -6338,7 +6482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="96" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C96" s="22" t="s">
         <v>334</v>
       </c>
@@ -6382,7 +6526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="97" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B97" s="22" t="s">
         <v>336</v>
       </c>
@@ -6444,7 +6588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="98" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B98" s="22" t="s">
         <v>341</v>
       </c>
@@ -6504,7 +6648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="99" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C99" s="22" t="s">
         <v>84</v>
       </c>
@@ -6523,7 +6667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="100" spans="2:22" x14ac:dyDescent="0.5">
       <c r="E100" s="21" t="s">
         <v>347</v>
       </c>
@@ -6553,7 +6697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="101" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C101" s="22"/>
       <c r="E101" s="22" t="s">
         <v>346</v>
@@ -6583,7 +6727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="102" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B102" s="22"/>
       <c r="D102" s="22" t="s">
         <v>332</v>
@@ -6601,7 +6745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="103" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C103" s="21" t="s">
         <v>349</v>
       </c>
@@ -6630,7 +6774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="104" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B104" s="22"/>
       <c r="C104" s="21" t="s">
         <v>351</v>
@@ -6664,7 +6808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="105" spans="2:22" x14ac:dyDescent="0.5">
       <c r="G105" s="22"/>
       <c r="I105" s="21" t="s">
         <v>361</v>
@@ -6682,7 +6826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="106" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B106" s="20" t="s">
         <v>355</v>
       </c>
@@ -6708,7 +6852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="107" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B107" s="22" t="s">
         <v>357</v>
       </c>
@@ -6754,7 +6898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="108" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C108" s="21" t="s">
         <v>367</v>
       </c>
@@ -6785,7 +6929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="109" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B109" s="22" t="s">
         <v>370</v>
       </c>
@@ -6816,7 +6960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="110" spans="2:22" x14ac:dyDescent="0.5">
       <c r="E110" s="22" t="s">
         <v>373</v>
       </c>
@@ -6838,7 +6982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="111" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B111" s="22"/>
       <c r="C111" s="21" t="s">
         <v>375</v>
@@ -6876,7 +7020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="112" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B112" s="20" t="s">
         <v>379</v>
       </c>
@@ -6932,7 +7076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="113" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C113" s="22"/>
       <c r="G113" s="21" t="s">
         <v>387</v>
@@ -6950,7 +7094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="114" spans="2:22" x14ac:dyDescent="0.5">
       <c r="D114" s="21"/>
       <c r="F114" s="21"/>
       <c r="O114" s="21"/>
@@ -6968,7 +7112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="115" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C115" s="21" t="s">
         <v>385</v>
       </c>
@@ -6985,7 +7129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="2:22" ht="82.8" x14ac:dyDescent="1.35">
+    <row r="116" spans="2:22" ht="55.5" x14ac:dyDescent="0.5">
       <c r="B116" s="22" t="s">
         <v>389</v>
       </c>
@@ -7036,7 +7180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="117" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B117" s="20" t="s">
         <v>393</v>
       </c>
@@ -7096,7 +7240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="118" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B118" s="22"/>
       <c r="G118" s="22"/>
       <c r="I118" s="22" t="s">
@@ -7118,7 +7262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="119" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B119" s="22"/>
       <c r="E119" s="21" t="s">
         <v>399</v>
@@ -7138,7 +7282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="120" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B120" s="22"/>
       <c r="G120" s="22"/>
       <c r="I120" s="22"/>
@@ -7158,7 +7302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="121" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B121" s="20" t="s">
         <v>402</v>
       </c>
@@ -7220,7 +7364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="122" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C122" s="22" t="s">
         <v>84</v>
       </c>
@@ -7245,7 +7389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="123" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C123" s="22"/>
       <c r="E123" s="22" t="s">
         <v>406</v>
@@ -7264,7 +7408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+    <row r="124" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="I124" s="21" t="s">
         <v>408</v>
       </c>
@@ -7281,7 +7425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+    <row r="125" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="C125" s="21" t="s">
         <v>409</v>
       </c>
@@ -7319,7 +7463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="126" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B126" s="20" t="s">
         <v>412</v>
       </c>
@@ -7381,7 +7525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="127" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B127" s="22"/>
       <c r="C127" s="22"/>
       <c r="E127" s="21" t="s">
@@ -7403,7 +7547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="128" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="G128" s="22"/>
       <c r="N128" s="21" t="s">
         <v>416</v>
@@ -7427,7 +7571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="129" spans="2:22" x14ac:dyDescent="0.5">
       <c r="E129" s="21" t="s">
         <v>424</v>
       </c>
@@ -7445,7 +7589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="130" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B130" s="20" t="s">
         <v>418</v>
       </c>
@@ -7490,7 +7634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="131" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B131" s="20" t="s">
         <v>425</v>
       </c>
@@ -7534,7 +7678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="132" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B132" s="20" t="s">
         <v>421</v>
       </c>
@@ -7561,7 +7705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="133" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C133" s="22" t="s">
         <v>423</v>
       </c>
@@ -7581,7 +7725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="134" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B134" s="22" t="s">
         <v>431</v>
       </c>
@@ -7607,7 +7751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="135" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C135" s="22" t="s">
         <v>433</v>
       </c>
@@ -7636,7 +7780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="136" spans="2:22" x14ac:dyDescent="0.5">
       <c r="G136" s="22" t="s">
         <v>439</v>
       </c>
@@ -7653,7 +7797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="137" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="I137" s="22" t="s">
         <v>441</v>
       </c>
@@ -7670,7 +7814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="138" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B138" s="22" t="s">
         <v>442</v>
       </c>
@@ -7717,7 +7861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="139" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C139" s="22" t="s">
         <v>445</v>
       </c>
@@ -7752,7 +7896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="140" spans="2:22" x14ac:dyDescent="0.5">
       <c r="E140" s="22" t="s">
         <v>447</v>
       </c>
@@ -7769,7 +7913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="141" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="K141" s="22" t="s">
         <v>449</v>
       </c>
@@ -7801,7 +7945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="142" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C142" s="22" t="s">
         <v>451</v>
       </c>
@@ -7818,7 +7962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="143" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C143" s="22" t="s">
         <v>453</v>
       </c>
@@ -7844,7 +7988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="144" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C144" s="22" t="s">
         <v>455</v>
       </c>
@@ -7891,7 +8035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="145" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C145" s="22" t="s">
         <v>456</v>
       </c>
@@ -7941,7 +8085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="146" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="C146" s="22" t="s">
         <v>459</v>
       </c>
@@ -7976,7 +8120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="147" spans="2:22" x14ac:dyDescent="0.5">
       <c r="E147" s="22" t="s">
         <v>347</v>
       </c>
@@ -8005,7 +8149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="148" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="E148" s="22" t="s">
         <v>462</v>
       </c>
@@ -8028,7 +8172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="149" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B149" s="22" t="s">
         <v>466</v>
       </c>
@@ -8054,7 +8198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="150" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="I150" s="22" t="s">
         <v>467</v>
       </c>
@@ -8077,7 +8221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="151" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="G151" s="22" t="s">
         <v>468</v>
       </c>
@@ -8100,7 +8244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="152" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="G152" s="22"/>
       <c r="I152" s="22"/>
       <c r="L152" s="21" t="s">
@@ -8116,7 +8260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="153" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="G153" s="22" t="s">
         <v>468</v>
       </c>
@@ -8139,7 +8283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="154" spans="2:22" x14ac:dyDescent="0.5">
       <c r="E154" s="22" t="s">
         <v>471</v>
       </c>
@@ -8168,7 +8312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="155" spans="2:22" x14ac:dyDescent="0.5">
       <c r="L155" s="22" t="s">
         <v>195</v>
       </c>
@@ -8185,7 +8329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="156" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B156" s="22" t="s">
         <v>475</v>
       </c>
@@ -8229,7 +8373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="157" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="E157" s="22" t="s">
         <v>477</v>
       </c>
@@ -8264,7 +8408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="158" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="E158" s="22" t="s">
         <v>480</v>
       </c>
@@ -8281,7 +8425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="159" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="C159" s="22" t="s">
         <v>479</v>
       </c>
@@ -8310,7 +8454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="160" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C160" s="22" t="s">
         <v>482</v>
       </c>
@@ -8327,7 +8471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="161" spans="2:22" x14ac:dyDescent="0.5">
       <c r="E161" s="22" t="s">
         <v>484</v>
       </c>
@@ -8350,7 +8494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="162" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B162" s="22" t="s">
         <v>486</v>
       </c>
@@ -8415,7 +8559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="163" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C163" s="22" t="s">
         <v>490</v>
       </c>
@@ -8450,7 +8594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="164" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="P164" s="22" t="s">
         <v>496</v>
       </c>
@@ -8467,7 +8611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+    <row r="165" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="C165" s="22" t="s">
         <v>500</v>
       </c>
@@ -8511,7 +8655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="166" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="C166" s="22" t="s">
         <v>503</v>
       </c>
@@ -8553,7 +8697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="167" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="E167" s="22" t="s">
         <v>505</v>
       </c>
@@ -8594,7 +8738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="168" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="N168" s="22" t="s">
         <v>509</v>
       </c>
@@ -8611,7 +8755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="169" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="I169" s="22" t="s">
         <v>511</v>
       </c>
@@ -8628,7 +8772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="170" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="E170" s="22" t="s">
         <v>512</v>
       </c>
@@ -8651,7 +8795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="171" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B171" s="22" t="s">
         <v>514</v>
       </c>
@@ -8704,7 +8848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="172" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B172" s="22" t="s">
         <v>516</v>
       </c>
@@ -8769,7 +8913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+    <row r="173" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="F173" s="22" t="s">
         <v>519</v>
       </c>
@@ -8783,7 +8927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="174" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="C174" s="22" t="s">
         <v>531</v>
       </c>
@@ -8812,7 +8956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="175" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="C175" s="22" t="s">
         <v>533</v>
       </c>
@@ -8856,7 +9000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="176" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="G176" s="22" t="s">
         <v>535</v>
       </c>
@@ -8885,7 +9029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="177" spans="2:22" x14ac:dyDescent="0.5">
       <c r="G177" s="22" t="s">
         <v>537</v>
       </c>
@@ -8905,7 +9049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="178" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B178" s="22" t="s">
         <v>540</v>
       </c>
@@ -8943,7 +9087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="179" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C179" s="22" t="s">
         <v>543</v>
       </c>
@@ -8993,7 +9137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="180" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C180" s="22" t="s">
         <v>544</v>
       </c>
@@ -9043,7 +9187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="181" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C181" s="22"/>
       <c r="E181" s="22" t="s">
         <v>550</v>
@@ -9065,7 +9209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="182" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C182" s="22" t="s">
         <v>546</v>
       </c>
@@ -9100,7 +9244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="183" spans="2:22" x14ac:dyDescent="0.5">
       <c r="R183" s="21" t="s">
         <v>548</v>
       </c>
@@ -9114,7 +9258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="184" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="L184" s="22" t="s">
         <v>552</v>
       </c>
@@ -9131,7 +9275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="185" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B185" s="22" t="s">
         <v>554</v>
       </c>
@@ -9176,7 +9320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="186" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C186" s="22" t="s">
         <v>556</v>
       </c>
@@ -9211,7 +9355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="187" spans="2:22" x14ac:dyDescent="0.5">
       <c r="E187" s="22" t="s">
         <v>558</v>
       </c>
@@ -9246,7 +9390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="188" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C188" s="22" t="s">
         <v>563</v>
       </c>
@@ -9281,7 +9425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="189" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="C189" s="22" t="s">
         <v>567</v>
       </c>
@@ -9328,7 +9472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+    <row r="190" spans="2:22" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="E190" s="32" t="s">
         <v>577</v>
       </c>
@@ -9361,7 +9505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+    <row r="191" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="C191" s="22" t="s">
         <v>579</v>
       </c>
@@ -9390,7 +9534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="192" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B192" s="22" t="s">
         <v>581</v>
       </c>
@@ -9416,7 +9560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="193" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C193" s="22" t="s">
         <v>583</v>
       </c>
@@ -9439,7 +9583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+    <row r="194" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B194" s="22" t="s">
         <v>140</v>
       </c>
@@ -9471,7 +9615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+    <row r="195" spans="2:22" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B195" s="32" t="s">
         <v>586</v>
       </c>
@@ -9503,7 +9647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+    <row r="196" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B196" s="22" t="s">
         <v>588</v>
       </c>
@@ -9568,7 +9712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="197" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="N197" s="21" t="s">
         <v>590</v>
       </c>
@@ -9585,7 +9729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="198" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B198" s="22" t="s">
         <v>593</v>
       </c>
@@ -9635,7 +9779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="199" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="M199" s="22" t="s">
         <v>595</v>
       </c>
@@ -9649,7 +9793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="200" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B200" s="22" t="s">
         <v>598</v>
       </c>
@@ -9696,7 +9840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="201" spans="2:22" x14ac:dyDescent="0.5">
       <c r="L201" s="22" t="s">
         <v>595</v>
       </c>
@@ -9713,7 +9857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="202" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="G202" s="22" t="s">
         <v>600</v>
       </c>
@@ -9730,7 +9874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="203" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B203" s="22" t="s">
         <v>607</v>
       </c>
@@ -9774,7 +9918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="204" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B204" s="22" t="s">
         <v>607</v>
       </c>
@@ -9818,7 +9962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="205" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B205" s="22" t="s">
         <v>609</v>
       </c>
@@ -9850,7 +9994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="206" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="C206" s="22" t="s">
         <v>140</v>
       </c>
@@ -9879,7 +10023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="207" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="C207" s="22" t="s">
         <v>612</v>
       </c>
@@ -9908,7 +10052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="208" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="J208" s="22" t="s">
         <v>616</v>
       </c>
@@ -9922,7 +10066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="209" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="J209" s="22" t="s">
         <v>617</v>
       </c>
@@ -9936,7 +10080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="210" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="J210" s="22" t="s">
         <v>618</v>
       </c>
@@ -9950,7 +10094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="211" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="L211" s="22" t="s">
         <v>620</v>
       </c>
@@ -9967,7 +10111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="212" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="M212" s="22" t="s">
         <v>621</v>
       </c>
@@ -9981,7 +10125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="213" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="K213" s="34" t="s">
         <v>623</v>
       </c>
@@ -10007,7 +10151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="214" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="K214" s="22" t="s">
         <v>624</v>
       </c>
@@ -10033,7 +10177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+    <row r="215" spans="2:22" ht="41.7" x14ac:dyDescent="0.5">
       <c r="B215" s="22" t="s">
         <v>628</v>
       </c>
@@ -10089,7 +10233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+    <row r="216" spans="2:22" ht="41.7" x14ac:dyDescent="0.5">
       <c r="B216" s="22" t="s">
         <v>626</v>
       </c>
@@ -10133,7 +10277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+    <row r="217" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B217" s="34" t="s">
         <v>630</v>
       </c>
@@ -10171,7 +10315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="218" spans="2:22" x14ac:dyDescent="0.5">
       <c r="D218" s="22" t="s">
         <v>633</v>
       </c>
@@ -10185,7 +10329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="219" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="E219" s="22" t="s">
         <v>635</v>
       </c>
@@ -10202,7 +10346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="220" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C220" s="22" t="s">
         <v>642</v>
       </c>
@@ -10249,7 +10393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="221" spans="2:22" x14ac:dyDescent="0.5">
       <c r="I221" s="22" t="s">
         <v>643</v>
       </c>
@@ -10266,7 +10410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="222" spans="2:22" x14ac:dyDescent="0.5">
       <c r="E222" s="22" t="s">
         <v>644</v>
       </c>
@@ -10286,7 +10430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="223" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="L223" s="22" t="s">
         <v>645</v>
       </c>
@@ -10309,7 +10453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+    <row r="224" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="L224" s="22" t="s">
         <v>650</v>
       </c>
@@ -10326,7 +10470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="225" spans="2:22" x14ac:dyDescent="0.5">
       <c r="E225" s="22" t="s">
         <v>651</v>
       </c>
@@ -10349,7 +10493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="226" spans="2:22" x14ac:dyDescent="0.5">
       <c r="G226" s="22" t="s">
         <v>652</v>
       </c>
@@ -10372,7 +10516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="227" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="G227" s="22"/>
       <c r="I227" s="22"/>
       <c r="K227" s="22" t="s">
@@ -10400,7 +10544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="228" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="I228" s="21" t="s">
         <v>654</v>
       </c>
@@ -10414,7 +10558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="229" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B229" s="22" t="s">
         <v>659</v>
       </c>
@@ -10464,7 +10608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="230" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="E230" s="22" t="s">
         <v>660</v>
       </c>
@@ -10493,7 +10637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="231" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="E231" s="22" t="s">
         <v>660</v>
       </c>
@@ -10522,7 +10666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="232" spans="2:22" x14ac:dyDescent="0.5">
       <c r="P232" s="22" t="s">
         <v>662</v>
       </c>
@@ -10539,7 +10683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="233" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B233" s="22" t="s">
         <v>665</v>
       </c>
@@ -10565,7 +10709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+    <row r="234" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="K234" s="22" t="s">
         <v>666</v>
       </c>
@@ -10585,7 +10729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="235" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="P235" s="19"/>
       <c r="T235" s="34" t="s">
         <v>670</v>
@@ -10597,7 +10741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="236" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="C236" s="22" t="s">
         <v>674</v>
       </c>
@@ -10641,7 +10785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="237" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="G237" s="22" t="s">
         <v>675</v>
       </c>
@@ -10658,7 +10802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="238" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="G238" s="22" t="s">
         <v>676</v>
       </c>
@@ -10675,7 +10819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="239" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B239" s="22" t="s">
         <v>677</v>
       </c>
@@ -10704,7 +10848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="240" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="G240" s="22" t="s">
         <v>675</v>
       </c>
@@ -10721,7 +10865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="241" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C241" s="22" t="s">
         <v>682</v>
       </c>
@@ -10768,7 +10912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="242" spans="2:22" x14ac:dyDescent="0.5">
       <c r="E242" s="22" t="s">
         <v>683</v>
       </c>
@@ -10791,7 +10935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="243" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B243" s="22" t="s">
         <v>684</v>
       </c>
@@ -10817,7 +10961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="244" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C244" s="22" t="s">
         <v>685</v>
       </c>
@@ -10864,7 +11008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="245" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="E245" s="22" t="s">
         <v>689</v>
       </c>
@@ -10881,7 +11025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="246" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B246" s="22" t="s">
         <v>690</v>
       </c>
@@ -10907,7 +11051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="247" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="G247" s="22" t="s">
         <v>692</v>
       </c>
@@ -10927,7 +11071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="248" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="D248" s="22" t="s">
         <v>693</v>
       </c>
@@ -10944,7 +11088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="249" spans="2:22" x14ac:dyDescent="0.5">
       <c r="E249" s="22" t="s">
         <v>696</v>
       </c>
@@ -10973,7 +11117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="250" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C250" s="22" t="s">
         <v>697</v>
       </c>
@@ -11008,7 +11152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="251" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B251" s="22" t="s">
         <v>699</v>
       </c>
@@ -11052,7 +11196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="252" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B252" s="22" t="s">
         <v>701</v>
       </c>
@@ -11078,7 +11222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="253" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="E253" s="22"/>
       <c r="G253" s="22"/>
       <c r="N253" s="22" t="s">
@@ -11099,7 +11243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="254" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B254" s="22" t="s">
         <v>708</v>
       </c>
@@ -11149,7 +11293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="255" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B255" s="22" t="s">
         <v>712</v>
       </c>
@@ -11193,7 +11337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="256" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B256" s="22" t="s">
         <v>713</v>
       </c>
@@ -11249,7 +11393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="257" spans="2:22" x14ac:dyDescent="0.5">
       <c r="L257" s="22" t="s">
         <v>715</v>
       </c>
@@ -11266,7 +11410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="258" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B258" s="22" t="s">
         <v>717</v>
       </c>
@@ -11322,7 +11466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="259" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B259" s="22" t="s">
         <v>719</v>
       </c>
@@ -11363,7 +11507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="260" spans="2:22" x14ac:dyDescent="0.5">
       <c r="I260" s="22" t="s">
         <v>721</v>
       </c>
@@ -11383,7 +11527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="261" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B261" s="22" t="s">
         <v>723</v>
       </c>
@@ -11412,7 +11556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="262" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="C262" s="22" t="s">
         <v>725</v>
       </c>
@@ -11429,7 +11573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="263" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B263" s="22" t="s">
         <v>727</v>
       </c>
@@ -11455,7 +11599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="264" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B264" s="22" t="s">
         <v>729</v>
       </c>
@@ -11493,7 +11637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="265" spans="2:22" x14ac:dyDescent="0.5">
       <c r="F265" s="22" t="s">
         <v>730</v>
       </c>
@@ -11507,7 +11651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="266" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B266" s="22" t="s">
         <v>732</v>
       </c>
@@ -11546,7 +11690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="267" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="N267" s="21" t="s">
         <v>82</v>
       </c>
@@ -11560,7 +11704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="268" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B268" s="22" t="s">
         <v>735</v>
       </c>
@@ -11586,7 +11730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="269" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="G269" s="22" t="s">
         <v>737</v>
       </c>
@@ -11647,7 +11791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="271" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="C271" s="22" t="s">
         <v>740</v>
       </c>
@@ -11691,7 +11835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="272" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B272" s="22" t="s">
         <v>723</v>
       </c>
@@ -11720,7 +11864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="273" spans="2:22" x14ac:dyDescent="0.5">
       <c r="E273" s="22" t="s">
         <v>749</v>
       </c>
@@ -11737,7 +11881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="274" spans="2:22" x14ac:dyDescent="0.5">
       <c r="E274" s="22" t="s">
         <v>750</v>
       </c>
@@ -11754,7 +11898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+    <row r="275" spans="2:22" ht="41.7" x14ac:dyDescent="0.5">
       <c r="C275" s="22" t="s">
         <v>752</v>
       </c>
@@ -11789,7 +11933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="276" spans="2:22" x14ac:dyDescent="0.5">
       <c r="M276" s="22" t="s">
         <v>754</v>
       </c>
@@ -11803,7 +11947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+    <row r="277" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="C277" s="22" t="s">
         <v>756</v>
       </c>
@@ -11853,7 +11997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="278" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="I278" s="22" t="s">
         <v>762</v>
       </c>
@@ -11876,7 +12020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+    <row r="279" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="L279" s="22" t="s">
         <v>764</v>
       </c>
@@ -11905,7 +12049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+    <row r="280" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="L280" s="22" t="s">
         <v>765</v>
       </c>
@@ -11934,7 +12078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+    <row r="281" spans="2:22" ht="41.7" x14ac:dyDescent="0.5">
       <c r="B281" s="22" t="s">
         <v>764</v>
       </c>
@@ -11990,7 +12134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="282" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="C282" s="22" t="s">
         <v>770</v>
       </c>
@@ -12037,7 +12181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="283" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C283" s="22" t="s">
         <v>385</v>
       </c>
@@ -12054,7 +12198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+    <row r="284" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B284" s="22" t="s">
         <v>773</v>
       </c>
@@ -12119,7 +12263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="285" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="C285" s="22" t="s">
         <v>777</v>
       </c>
@@ -12148,7 +12292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="286" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C286" s="22" t="s">
         <v>780</v>
       </c>
@@ -12178,7 +12322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="287" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="E287" s="22" t="s">
         <v>784</v>
       </c>
@@ -12201,7 +12345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+    <row r="288" spans="2:22" ht="41.7" x14ac:dyDescent="0.5">
       <c r="B288" s="22" t="s">
         <v>787</v>
       </c>
@@ -12221,7 +12365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="289" spans="2:22" x14ac:dyDescent="0.5">
       <c r="M289" s="22" t="s">
         <v>754</v>
       </c>
@@ -12255,12 +12399,597 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
-      <c r="U291" s="23" t="s">
+    <row r="291" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="E291" s="22" t="s">
+        <v>792</v>
+      </c>
+      <c r="F291" s="22" t="s">
+        <v>792</v>
+      </c>
+      <c r="K291" s="22" t="s">
+        <v>792</v>
+      </c>
+      <c r="L291" s="22" t="s">
+        <v>792</v>
+      </c>
+      <c r="M291" s="22" t="s">
+        <v>792</v>
+      </c>
+      <c r="T291" s="34" t="s">
         <v>791</v>
+      </c>
+      <c r="U291" s="23">
+        <v>2</v>
       </c>
       <c r="V291" s="24">
         <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="N292" s="22" t="s">
+        <v>793</v>
+      </c>
+      <c r="O292" s="22" t="s">
+        <v>793</v>
+      </c>
+      <c r="P292" s="22" t="s">
+        <v>793</v>
+      </c>
+      <c r="Q292" s="22" t="s">
+        <v>793</v>
+      </c>
+      <c r="T292" s="34" t="s">
+        <v>791</v>
+      </c>
+      <c r="U292" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="2:22" ht="14.1" customHeight="1" x14ac:dyDescent="1.35">
+      <c r="Q293" s="22" t="s">
+        <v>795</v>
+      </c>
+      <c r="T293" s="34" t="s">
+        <v>794</v>
+      </c>
+      <c r="U293" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+      <c r="E294" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="F294" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="T294" s="34" t="s">
+        <v>796</v>
+      </c>
+      <c r="U294" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="B295" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="E295" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="F295" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="G295" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="H295" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="L295" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="M295" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="P295" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q295" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="R295" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="S295" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="T295" s="34" t="s">
+        <v>797</v>
+      </c>
+      <c r="U295" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="G296" s="22" t="s">
+        <v>675</v>
+      </c>
+      <c r="H296" s="22" t="s">
+        <v>675</v>
+      </c>
+      <c r="T296" s="34" t="s">
+        <v>798</v>
+      </c>
+      <c r="U296" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="C297" s="22" t="s">
+        <v>800</v>
+      </c>
+      <c r="D297" s="22" t="s">
+        <v>800</v>
+      </c>
+      <c r="T297" s="34" t="s">
+        <v>799</v>
+      </c>
+      <c r="U297" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="B298" s="22" t="s">
+        <v>802</v>
+      </c>
+      <c r="E298" s="22" t="s">
+        <v>802</v>
+      </c>
+      <c r="F298" s="22" t="s">
+        <v>802</v>
+      </c>
+      <c r="I298" s="22" t="s">
+        <v>802</v>
+      </c>
+      <c r="J298" s="22" t="s">
+        <v>802</v>
+      </c>
+      <c r="K298" s="22" t="s">
+        <v>802</v>
+      </c>
+      <c r="N298" s="22" t="s">
+        <v>802</v>
+      </c>
+      <c r="O298" s="22" t="s">
+        <v>802</v>
+      </c>
+      <c r="P298" s="22" t="s">
+        <v>802</v>
+      </c>
+      <c r="Q298" s="22" t="s">
+        <v>802</v>
+      </c>
+      <c r="T298" s="34" t="s">
+        <v>801</v>
+      </c>
+      <c r="U298" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="B299" s="22" t="s">
+        <v>701</v>
+      </c>
+      <c r="G299" s="22" t="s">
+        <v>701</v>
+      </c>
+      <c r="H299" s="22" t="s">
+        <v>701</v>
+      </c>
+      <c r="I299" s="22" t="s">
+        <v>701</v>
+      </c>
+      <c r="J299" s="22" t="s">
+        <v>701</v>
+      </c>
+      <c r="T299" s="34" t="s">
+        <v>803</v>
+      </c>
+      <c r="U299" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="E300" s="22" t="s">
+        <v>792</v>
+      </c>
+      <c r="F300" s="22" t="s">
+        <v>792</v>
+      </c>
+      <c r="K300" s="22" t="s">
+        <v>792</v>
+      </c>
+      <c r="L300" s="22" t="s">
+        <v>792</v>
+      </c>
+      <c r="M300" s="22" t="s">
+        <v>792</v>
+      </c>
+      <c r="T300" s="34" t="s">
+        <v>804</v>
+      </c>
+      <c r="U300" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="G301" s="22" t="s">
+        <v>806</v>
+      </c>
+      <c r="H301" s="22" t="s">
+        <v>806</v>
+      </c>
+      <c r="I301" s="22" t="s">
+        <v>806</v>
+      </c>
+      <c r="J301" s="22" t="s">
+        <v>806</v>
+      </c>
+      <c r="T301" s="34" t="s">
+        <v>805</v>
+      </c>
+      <c r="U301" s="23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="302" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+      <c r="C302" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="D302" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="G302" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="H302" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="N302" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="O302" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="P302" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q302" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="T302" s="34" t="s">
+        <v>807</v>
+      </c>
+      <c r="U302" s="23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="303" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="T303" s="34" t="s">
+        <v>808</v>
+      </c>
+      <c r="U303" s="23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="304" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="B304" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="C304" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="D304" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="G304" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="H304" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="I304" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="J304" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="K304" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="L304" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="M304" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="P304" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="Q304" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="T304" s="34" t="s">
+        <v>809</v>
+      </c>
+      <c r="U304" s="23">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="305" spans="2:21" ht="20.7" x14ac:dyDescent="1.35">
+      <c r="E305" s="22" t="s">
+        <v>814</v>
+      </c>
+      <c r="F305" s="22" t="s">
+        <v>814</v>
+      </c>
+      <c r="T305" s="34" t="s">
+        <v>813</v>
+      </c>
+      <c r="U305" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="306" spans="2:21" ht="20.7" x14ac:dyDescent="1.35">
+      <c r="N306" s="22" t="s">
+        <v>816</v>
+      </c>
+      <c r="O306" s="22" t="s">
+        <v>816</v>
+      </c>
+      <c r="T306" s="34" t="s">
+        <v>815</v>
+      </c>
+      <c r="U306" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="307" spans="2:21" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="R307" s="22" t="s">
+        <v>818</v>
+      </c>
+      <c r="S307" s="22" t="s">
+        <v>818</v>
+      </c>
+      <c r="T307" s="34" t="s">
+        <v>817</v>
+      </c>
+      <c r="U307" s="23">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="308" spans="2:21" ht="20.7" x14ac:dyDescent="1.35">
+      <c r="C308" s="22" t="s">
+        <v>820</v>
+      </c>
+      <c r="D308" s="22" t="s">
+        <v>820</v>
+      </c>
+      <c r="E308" s="22" t="s">
+        <v>820</v>
+      </c>
+      <c r="F308" s="22" t="s">
+        <v>820</v>
+      </c>
+      <c r="G308" s="22" t="s">
+        <v>820</v>
+      </c>
+      <c r="H308" s="22" t="s">
+        <v>820</v>
+      </c>
+      <c r="N308" s="22" t="s">
+        <v>820</v>
+      </c>
+      <c r="O308" s="22" t="s">
+        <v>820</v>
+      </c>
+      <c r="P308" s="22" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q308" s="22" t="s">
+        <v>820</v>
+      </c>
+      <c r="T308" s="34" t="s">
+        <v>819</v>
+      </c>
+      <c r="U308" s="23">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="309" spans="2:21" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="H309" s="22" t="s">
+        <v>826</v>
+      </c>
+      <c r="T309" s="34" t="s">
+        <v>821</v>
+      </c>
+      <c r="U309" s="23">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="310" spans="2:21" ht="20.7" x14ac:dyDescent="1.35">
+      <c r="H310" s="22" t="s">
+        <v>827</v>
+      </c>
+      <c r="T310" s="34" t="s">
+        <v>822</v>
+      </c>
+      <c r="U310" s="23">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="311" spans="2:21" ht="20.7" x14ac:dyDescent="1.35">
+      <c r="H311" s="22" t="s">
+        <v>830</v>
+      </c>
+      <c r="R311" s="22" t="s">
+        <v>831</v>
+      </c>
+      <c r="S311" s="22" t="s">
+        <v>831</v>
+      </c>
+      <c r="T311" s="34" t="s">
+        <v>823</v>
+      </c>
+      <c r="U311" s="23">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="312" spans="2:21" ht="20.7" x14ac:dyDescent="1.35">
+      <c r="H312" s="22" t="s">
+        <v>828</v>
+      </c>
+      <c r="T312" s="34" t="s">
+        <v>824</v>
+      </c>
+      <c r="U312" s="23">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="313" spans="2:21" ht="20.7" x14ac:dyDescent="1.35">
+      <c r="E313" s="22" t="s">
+        <v>829</v>
+      </c>
+      <c r="F313" s="22" t="s">
+        <v>829</v>
+      </c>
+      <c r="H313" s="22" t="s">
+        <v>829</v>
+      </c>
+      <c r="L313" s="22" t="s">
+        <v>829</v>
+      </c>
+      <c r="M313" s="22" t="s">
+        <v>829</v>
+      </c>
+      <c r="N313" s="22" t="s">
+        <v>829</v>
+      </c>
+      <c r="O313" s="22" t="s">
+        <v>829</v>
+      </c>
+      <c r="P313" s="22" t="s">
+        <v>829</v>
+      </c>
+      <c r="Q313" s="22" t="s">
+        <v>829</v>
+      </c>
+      <c r="T313" s="34" t="s">
+        <v>825</v>
+      </c>
+      <c r="U313" s="23">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="314" spans="2:21" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="C314" s="22" t="s">
+        <v>833</v>
+      </c>
+      <c r="D314" s="22" t="s">
+        <v>833</v>
+      </c>
+      <c r="E314" s="22" t="s">
+        <v>800</v>
+      </c>
+      <c r="F314" s="22" t="s">
+        <v>800</v>
+      </c>
+      <c r="N314" s="22" t="s">
+        <v>800</v>
+      </c>
+      <c r="O314" s="22" t="s">
+        <v>800</v>
+      </c>
+      <c r="T314" s="34" t="s">
+        <v>832</v>
+      </c>
+      <c r="U314" s="23">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="315" spans="2:21" ht="20.7" x14ac:dyDescent="1.35">
+      <c r="I315" s="22" t="s">
+        <v>835</v>
+      </c>
+      <c r="J315" s="22" t="s">
+        <v>835</v>
+      </c>
+      <c r="T315" s="34" t="s">
+        <v>834</v>
+      </c>
+      <c r="U315" s="23">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="316" spans="2:21" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="B316" s="22" t="s">
+        <v>837</v>
+      </c>
+      <c r="E316" s="22" t="s">
+        <v>837</v>
+      </c>
+      <c r="F316" s="22" t="s">
+        <v>837</v>
+      </c>
+      <c r="G316" s="22" t="s">
+        <v>837</v>
+      </c>
+      <c r="H316" s="22" t="s">
+        <v>837</v>
+      </c>
+      <c r="L316" s="22" t="s">
+        <v>837</v>
+      </c>
+      <c r="M316" s="22" t="s">
+        <v>837</v>
+      </c>
+      <c r="P316" s="22" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q316" s="22" t="s">
+        <v>837</v>
+      </c>
+      <c r="R316" s="22" t="s">
+        <v>837</v>
+      </c>
+      <c r="S316" s="22" t="s">
+        <v>837</v>
+      </c>
+      <c r="T316" s="34" t="s">
+        <v>836</v>
+      </c>
+      <c r="U316" s="23">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="317" spans="2:21" ht="20.7" x14ac:dyDescent="1.35">
+      <c r="L317" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="M317" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="T317" s="34" t="s">
+        <v>838</v>
+      </c>
+      <c r="U317" s="23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="318" spans="2:21" ht="20.7" x14ac:dyDescent="1.35">
+      <c r="U318" s="23" t="s">
+        <v>839</v>
       </c>
     </row>
   </sheetData>
@@ -12287,11 +13016,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77114127-4DCE-4987-8CAC-47A2103A8FA5}">
-  <dimension ref="A1:V83"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S84" sqref="S84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -14918,7 +15647,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="81" spans="5:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="S81" s="32" t="s">
         <v>758</v>
       </c>
@@ -14926,7 +15655,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="82" spans="5:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="E82" s="32" t="s">
         <v>760</v>
       </c>
@@ -14943,7 +15672,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="83" spans="5:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="E83" s="32" t="s">
         <v>768</v>
       </c>
@@ -14954,19 +15683,48 @@
         <v>767</v>
       </c>
     </row>
+    <row r="84" spans="2:21" ht="20.7" x14ac:dyDescent="1.35">
+      <c r="B84" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84" s="32" t="s">
+        <v>812</v>
+      </c>
+      <c r="G84" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H84" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I84" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="J84" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="P84" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="S84" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="U84" s="32" t="s">
+        <v>811</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:T2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/جدول إختلافات القراء.xlsx
+++ b/جدول إختلافات القراء.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amr Saber\Documents\GitHub\QiraAat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F6A584-328F-4C4B-8F25-DE7A2A7F9F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0C0CB4-CA3E-4131-84DE-15B82E7C9770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19275" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{05251348-2C78-4EB4-8303-7D5EDAD52AE6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2965" uniqueCount="887">
   <si>
     <t>خلف البزار</t>
   </si>
@@ -2719,7 +2719,148 @@
     <t>أَفَحُكْمَ ٱلْجَـٰهِلِيَّةِ يَبْغُونَ ۚ وَمَنْ أَحْسَنُ مِنَ ٱللَّهِ حُكْمًۭا لِّقَوْمٍۢ يُوقِنُونَ</t>
   </si>
   <si>
-    <t>ص125</t>
+    <t>وَيَقُولُ ٱلَّذِينَ ءَامَنُوٓا۟ أَهَـٰٓؤُلَآءِ ٱلَّذِينَ أَقْسَمُوا۟ بِٱللَّهِ جَهْدَ أَيْمَـٰنِهِمْ ۙ إِنَّهُمْ لَمَعَكُمْ ۚ</t>
+  </si>
+  <si>
+    <t>ويقولَ</t>
+  </si>
+  <si>
+    <t>يَـٰٓأَيُّهَا ٱلَّذِينَ ءَامَنُوا۟ مَن يَرْتَدَّ مِنكُمْ عَن دِينِهِۦ فَسَوْفَ يَأْتِى ٱللَّهُ بِقَوْمٍۢ يُحِبُّهُمْ وَيُحِبُّونَهُۥٓ</t>
+  </si>
+  <si>
+    <t>يرتدِدْ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مِّنَ ٱلَّذِينَ أُوتُوا۟ ٱلْكِتَـٰبَ مِن قَبْلِكُمْ وَٱلْكُفَّارَ </t>
+  </si>
+  <si>
+    <t>والكفارِ</t>
+  </si>
+  <si>
+    <t>مَن لَّعَنَهُ ٱللَّهُ وَغَضِبَ عَلَيْهِ وَجَعَلَ مِنْهُمُ ٱلْقِرَدَةَ وَٱلْخَنَازِيرَ وَعَبَدَ ٱلطَّـٰغُوتَ ۚ</t>
+  </si>
+  <si>
+    <t>وعبُدَ الطَّاغوتِ</t>
+  </si>
+  <si>
+    <t>السحُت</t>
+  </si>
+  <si>
+    <t>وَتَرَىٰ كَثِيرًۭا مِّنْهُمْ يُسَـٰرِعُونَ فِى ٱلْإِثْمِ وَٱلْعُدْوَٰنِ وَأَكْلِهِمُ ٱلسُّحْتَ ۚ</t>
+  </si>
+  <si>
+    <t>وَإِن لَّمْ تَفْعَلْ فَمَا بَلَّغْتَ رِسَالَتَهُۥ ۚ</t>
+  </si>
+  <si>
+    <t>رسالاتِه</t>
+  </si>
+  <si>
+    <t>مَنْ ءَامَنَ بِٱللَّهِ وَٱلْيَوْمِ ٱلْـَٔاخِرِ وَعَمِلَ صَـٰلِحًۭا فَلَا خَوْفٌ عَلَيْهِمْ وَلَا هُمْ يَحْزَنُونَ</t>
+  </si>
+  <si>
+    <t>وَحَسِبُوٓا۟ أَلَّا تَكُونَ فِتْنَةٌۭ فَعَمُوا۟ وَصَمُّوا۟</t>
+  </si>
+  <si>
+    <t>تكونُ</t>
+  </si>
+  <si>
+    <t>لَا يُؤَاخِذُكُمُ ٱللَّهُ بِٱللَّغْوِ فِىٓ أَيْمَـٰنِكُمْ وَلَـٰكِن يُؤَاخِذُكُم بِمَا عَقَّدتُّمُ ٱلْأَيْمَـٰنَ ۖ</t>
+  </si>
+  <si>
+    <t>عاقَدتم</t>
+  </si>
+  <si>
+    <t>عقَدتم</t>
+  </si>
+  <si>
+    <t>وَمَن قَتَلَهُۥ مِنكُم مُّتَعَمِّدًۭا فَجَزَآءٌۭ مِّثْلُ مَا قَتَلَ مِنَ ٱلنَّعَمِ</t>
+  </si>
+  <si>
+    <t>أَوْ كَفَّـٰرَةٌۭ طَعَامُ مَسَـٰكِينَ</t>
+  </si>
+  <si>
+    <t>فجزاءُ مثلِ</t>
+  </si>
+  <si>
+    <t>كفارةُ طعامِ</t>
+  </si>
+  <si>
+    <t>۞ جَعَلَ ٱللَّهُ ٱلْكَعْبَةَ ٱلْبَيْتَ ٱلْحَرَامَ قِيَـٰمًۭا لِّلنَّاسِ</t>
+  </si>
+  <si>
+    <t>وَإِن تَسْـَٔلُوا۟ عَنْهَا حِينَ يُنَزَّلُ ٱلْقُرْءَانُ تُبْدَ لَكُمْ</t>
+  </si>
+  <si>
+    <t>يُنْزَلُ</t>
+  </si>
+  <si>
+    <t>استُحِقَّ</t>
+  </si>
+  <si>
+    <t>فَـَٔاخَرَانِ يَقُومَانِ مَقَامَهُمَا مِنَ ٱلَّذِينَ ٱسْتَحَقَّ عَلَيْهِمُ ٱلْأَوْلَيَـٰنِ</t>
+  </si>
+  <si>
+    <t>الأوَّلِينَ</t>
+  </si>
+  <si>
+    <t>قَالُوا۟ لَا عِلْمَ لَنَآ ۖ إِنَّكَ أَنتَ عَلَّـٰمُ ٱلْغُيُوبِ</t>
+  </si>
+  <si>
+    <t>الغِيوب</t>
+  </si>
+  <si>
+    <t>إِذْ أَيَّدتُّكَ بِرُوحِ ٱلْقُدُسِ</t>
+  </si>
+  <si>
+    <t>القدْس</t>
+  </si>
+  <si>
+    <t>وَإِذْ تَخْلُقُ مِنَ ٱلطِّينِ كَهَيْـَٔةِ ٱلطَّيْرِ بِإِذْنِى فَتَنفُخُ فِيهَا فَتَكُونُ طَيْرًۢا بِإِذْنِى ۖ</t>
+  </si>
+  <si>
+    <t>الطَّائِرِ</t>
+  </si>
+  <si>
+    <t>طائِراً</t>
+  </si>
+  <si>
+    <t>فَقَالَ ٱلَّذِينَ كَفَرُوا۟ مِنْهُمْ إِنْ هَـٰذَآ إِلَّا سِحْرٌۭ مُّبِينٌۭ</t>
+  </si>
+  <si>
+    <t>ساحِرٌ</t>
+  </si>
+  <si>
+    <t>إِذْ قَالَ ٱلْحَوَارِيُّونَ يَـٰعِيسَى ٱبْنَ مَرْيَمَ هَلْ يَسْتَطِيعُ رَبُّكَ أَن يُنَزِّلَ عَلَيْنَا مَآئِدَةًۭ مِّنَ ٱلسَّمَآءِ ۖ</t>
+  </si>
+  <si>
+    <t>تَستطيعُ ربَّكَ</t>
+  </si>
+  <si>
+    <t>قَالَ ٱللَّهُ إِنِّى مُنَزِّلُهَا عَلَيْكُمْ ۖ</t>
+  </si>
+  <si>
+    <t>مُنْزِلُها</t>
+  </si>
+  <si>
+    <t>أنِ اعْبُدُواْ اللّھَ</t>
+  </si>
+  <si>
+    <t>قَالَ ٱللَّهُ هَـٰذَا يَوْمُ يَنفَعُ ٱلصَّـٰدِقِينَ صِدْقُهُمْ ۚ</t>
+  </si>
+  <si>
+    <t>يومَ</t>
+  </si>
+  <si>
+    <t>وَإِذْ قَالَ ٱللَّهُ يَـٰعِيسَى ٱبْنَ مَرْيَمَ ءَأَنتَ قُلْتَ لِلنَّاسِ ٱتَّخِذُونِى وَأُمِّىَ إِلَـٰهَيْنِ مِن دُونِ ٱللَّهِ ۖ</t>
+  </si>
+  <si>
+    <t>وأمِّى</t>
+  </si>
+  <si>
+    <t>قَالَ سُبْحَـٰنَكَ مَا يَكُونُ لِىٓ أَنْ أَقُولَ مَا لَيْسَ لِى بِحَقٍّ ۚ</t>
+  </si>
+  <si>
+    <t>ص136</t>
   </si>
 </sst>
 </file>
@@ -3737,12 +3878,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD83332C-D38C-40A7-AE68-82D7A06EF479}">
-  <dimension ref="A1:V318"/>
+  <dimension ref="A1:V344"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="P314" sqref="P314"/>
+      <selection pane="bottomLeft" activeCell="R348" sqref="R348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="1.35"/>
@@ -11747,7 +11888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="270" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="C270" s="22" t="s">
         <v>739</v>
       </c>
@@ -12379,7 +12520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+    <row r="290" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B290" s="22" t="s">
         <v>790</v>
       </c>
@@ -12399,7 +12540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="291" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="E291" s="22" t="s">
         <v>792</v>
       </c>
@@ -12425,7 +12566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="292" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="N292" s="22" t="s">
         <v>793</v>
       </c>
@@ -12444,8 +12585,11 @@
       <c r="U292" s="23">
         <v>2</v>
       </c>
-    </row>
-    <row r="293" spans="2:22" ht="14.1" customHeight="1" x14ac:dyDescent="1.35">
+      <c r="V292" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="2:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="Q293" s="22" t="s">
         <v>795</v>
       </c>
@@ -12455,8 +12599,11 @@
       <c r="U293" s="23">
         <v>2</v>
       </c>
-    </row>
-    <row r="294" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+      <c r="V293" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="2:22" x14ac:dyDescent="0.5">
       <c r="E294" s="22" t="s">
         <v>248</v>
       </c>
@@ -12469,8 +12616,11 @@
       <c r="U294" s="23">
         <v>3</v>
       </c>
-    </row>
-    <row r="295" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="V294" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B295" s="22" t="s">
         <v>251</v>
       </c>
@@ -12510,8 +12660,11 @@
       <c r="U295" s="23">
         <v>3</v>
       </c>
-    </row>
-    <row r="296" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="V295" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="G296" s="22" t="s">
         <v>675</v>
       </c>
@@ -12524,8 +12677,11 @@
       <c r="U296" s="23">
         <v>5</v>
       </c>
-    </row>
-    <row r="297" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="V296" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="C297" s="22" t="s">
         <v>800</v>
       </c>
@@ -12538,8 +12694,11 @@
       <c r="U297" s="23">
         <v>3</v>
       </c>
-    </row>
-    <row r="298" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="V297" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B298" s="22" t="s">
         <v>802</v>
       </c>
@@ -12576,8 +12735,11 @@
       <c r="U298" s="23">
         <v>6</v>
       </c>
-    </row>
-    <row r="299" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="V298" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B299" s="22" t="s">
         <v>701</v>
       </c>
@@ -12599,8 +12761,11 @@
       <c r="U299" s="23">
         <v>6</v>
       </c>
-    </row>
-    <row r="300" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="V299" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="2:22" x14ac:dyDescent="0.5">
       <c r="E300" s="22" t="s">
         <v>792</v>
       </c>
@@ -12622,8 +12787,11 @@
       <c r="U300" s="23">
         <v>8</v>
       </c>
-    </row>
-    <row r="301" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="V300" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="G301" s="22" t="s">
         <v>806</v>
       </c>
@@ -12642,8 +12810,11 @@
       <c r="U301" s="23">
         <v>13</v>
       </c>
-    </row>
-    <row r="302" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+      <c r="V301" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="C302" s="22" t="s">
         <v>535</v>
       </c>
@@ -12674,16 +12845,22 @@
       <c r="U302" s="23">
         <v>11</v>
       </c>
-    </row>
-    <row r="303" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="V302" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="2:22" x14ac:dyDescent="0.5">
       <c r="T303" s="34" t="s">
         <v>808</v>
       </c>
       <c r="U303" s="23">
         <v>16</v>
       </c>
-    </row>
-    <row r="304" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="V303" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="B304" s="22" t="s">
         <v>810</v>
       </c>
@@ -12726,8 +12903,11 @@
       <c r="U304" s="23">
         <v>28</v>
       </c>
-    </row>
-    <row r="305" spans="2:21" ht="20.7" x14ac:dyDescent="1.35">
+      <c r="V304" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="2:22" x14ac:dyDescent="0.5">
       <c r="E305" s="22" t="s">
         <v>814</v>
       </c>
@@ -12740,8 +12920,11 @@
       <c r="U305" s="23">
         <v>32</v>
       </c>
-    </row>
-    <row r="306" spans="2:21" ht="20.7" x14ac:dyDescent="1.35">
+      <c r="V305" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="2:22" x14ac:dyDescent="0.5">
       <c r="N306" s="22" t="s">
         <v>816</v>
       </c>
@@ -12754,8 +12937,11 @@
       <c r="U306" s="23">
         <v>32</v>
       </c>
-    </row>
-    <row r="307" spans="2:21" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="V306" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="R307" s="22" t="s">
         <v>818</v>
       </c>
@@ -12768,8 +12954,11 @@
       <c r="U307" s="23">
         <v>41</v>
       </c>
-    </row>
-    <row r="308" spans="2:21" ht="20.7" x14ac:dyDescent="1.35">
+      <c r="V307" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="2:22" x14ac:dyDescent="0.5">
       <c r="C308" s="22" t="s">
         <v>820</v>
       </c>
@@ -12806,8 +12995,11 @@
       <c r="U308" s="23">
         <v>42</v>
       </c>
-    </row>
-    <row r="309" spans="2:21" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="V308" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="H309" s="22" t="s">
         <v>826</v>
       </c>
@@ -12817,8 +13009,11 @@
       <c r="U309" s="23">
         <v>45</v>
       </c>
-    </row>
-    <row r="310" spans="2:21" ht="20.7" x14ac:dyDescent="1.35">
+      <c r="V309" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="2:22" x14ac:dyDescent="0.5">
       <c r="H310" s="22" t="s">
         <v>827</v>
       </c>
@@ -12828,8 +13023,11 @@
       <c r="U310" s="23">
         <v>45</v>
       </c>
-    </row>
-    <row r="311" spans="2:21" ht="20.7" x14ac:dyDescent="1.35">
+      <c r="V310" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="2:22" x14ac:dyDescent="0.5">
       <c r="H311" s="22" t="s">
         <v>830</v>
       </c>
@@ -12845,8 +13043,11 @@
       <c r="U311" s="23">
         <v>45</v>
       </c>
-    </row>
-    <row r="312" spans="2:21" ht="20.7" x14ac:dyDescent="1.35">
+      <c r="V311" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="2:22" x14ac:dyDescent="0.5">
       <c r="H312" s="22" t="s">
         <v>828</v>
       </c>
@@ -12856,8 +13057,11 @@
       <c r="U312" s="23">
         <v>45</v>
       </c>
-    </row>
-    <row r="313" spans="2:21" ht="20.7" x14ac:dyDescent="1.35">
+      <c r="V312" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="2:22" x14ac:dyDescent="0.5">
       <c r="E313" s="22" t="s">
         <v>829</v>
       </c>
@@ -12891,8 +13095,11 @@
       <c r="U313" s="23">
         <v>45</v>
       </c>
-    </row>
-    <row r="314" spans="2:21" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="V313" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="2:22" ht="27.9" x14ac:dyDescent="0.5">
       <c r="C314" s="22" t="s">
         <v>833</v>
       </c>
@@ -12917,8 +13124,11 @@
       <c r="U314" s="23">
         <v>44</v>
       </c>
-    </row>
-    <row r="315" spans="2:21" ht="20.7" x14ac:dyDescent="1.35">
+      <c r="V314" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="2:22" x14ac:dyDescent="0.5">
       <c r="I315" s="22" t="s">
         <v>835</v>
       </c>
@@ -12931,8 +13141,11 @@
       <c r="U315" s="23">
         <v>47</v>
       </c>
-    </row>
-    <row r="316" spans="2:21" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="V315" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B316" s="22" t="s">
         <v>837</v>
       </c>
@@ -12972,8 +13185,11 @@
       <c r="U316" s="23">
         <v>49</v>
       </c>
-    </row>
-    <row r="317" spans="2:21" ht="20.7" x14ac:dyDescent="1.35">
+      <c r="V316" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
       <c r="L317" s="22" t="s">
         <v>514</v>
       </c>
@@ -12986,10 +13202,802 @@
       <c r="U317" s="23">
         <v>50</v>
       </c>
-    </row>
-    <row r="318" spans="2:21" ht="20.7" x14ac:dyDescent="1.35">
-      <c r="U318" s="23" t="s">
+      <c r="V317" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+      <c r="C318" s="22" t="s">
+        <v>840</v>
+      </c>
+      <c r="D318" s="22" t="s">
+        <v>840</v>
+      </c>
+      <c r="E318" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="F318" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="L318" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="M318" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="N318" s="22" t="s">
+        <v>840</v>
+      </c>
+      <c r="O318" s="22" t="s">
+        <v>840</v>
+      </c>
+      <c r="P318" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q318" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="R318" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="S318" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="T318" s="34" t="s">
         <v>839</v>
+      </c>
+      <c r="U318" s="23">
+        <v>53</v>
+      </c>
+      <c r="V318" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+      <c r="E319" s="22" t="s">
+        <v>842</v>
+      </c>
+      <c r="F319" s="22" t="s">
+        <v>842</v>
+      </c>
+      <c r="L319" s="22" t="s">
+        <v>842</v>
+      </c>
+      <c r="M319" s="22" t="s">
+        <v>842</v>
+      </c>
+      <c r="R319" s="22" t="s">
+        <v>842</v>
+      </c>
+      <c r="S319" s="22" t="s">
+        <v>842</v>
+      </c>
+      <c r="T319" s="34" t="s">
+        <v>841</v>
+      </c>
+      <c r="U319" s="23">
+        <v>54</v>
+      </c>
+      <c r="V319" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="C320" s="22" t="s">
+        <v>844</v>
+      </c>
+      <c r="D320" s="22" t="s">
+        <v>844</v>
+      </c>
+      <c r="G320" s="22" t="s">
+        <v>844</v>
+      </c>
+      <c r="H320" s="22" t="s">
+        <v>844</v>
+      </c>
+      <c r="N320" s="22" t="s">
+        <v>844</v>
+      </c>
+      <c r="O320" s="22" t="s">
+        <v>844</v>
+      </c>
+      <c r="T320" s="34" t="s">
+        <v>843</v>
+      </c>
+      <c r="U320" s="23">
+        <v>57</v>
+      </c>
+      <c r="V320" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="I321" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="J321" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="T321" s="34" t="s">
+        <v>845</v>
+      </c>
+      <c r="U321" s="23">
+        <v>60</v>
+      </c>
+      <c r="V321" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="C322" s="22" t="s">
+        <v>847</v>
+      </c>
+      <c r="D322" s="22" t="s">
+        <v>847</v>
+      </c>
+      <c r="E322" s="22" t="s">
+        <v>847</v>
+      </c>
+      <c r="F322" s="22" t="s">
+        <v>847</v>
+      </c>
+      <c r="G322" s="22" t="s">
+        <v>847</v>
+      </c>
+      <c r="H322" s="22" t="s">
+        <v>847</v>
+      </c>
+      <c r="N322" s="22" t="s">
+        <v>847</v>
+      </c>
+      <c r="O322" s="22" t="s">
+        <v>847</v>
+      </c>
+      <c r="P322" s="22" t="s">
+        <v>847</v>
+      </c>
+      <c r="Q322" s="22" t="s">
+        <v>847</v>
+      </c>
+      <c r="T322" s="34" t="s">
+        <v>848</v>
+      </c>
+      <c r="U322" s="23">
+        <v>62</v>
+      </c>
+      <c r="V322" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+      <c r="C323" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="D323" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="E323" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="F323" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="K323" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="L323" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="M323" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="R323" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="S323" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="T323" s="34" t="s">
+        <v>849</v>
+      </c>
+      <c r="U323" s="23">
+        <v>67</v>
+      </c>
+      <c r="V323" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="C324" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D324" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="T324" s="34" t="s">
+        <v>851</v>
+      </c>
+      <c r="U324" s="23">
+        <v>69</v>
+      </c>
+      <c r="V324" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="B325" s="22" t="s">
+        <v>853</v>
+      </c>
+      <c r="C325" s="22" t="s">
+        <v>853</v>
+      </c>
+      <c r="D325" s="22" t="s">
+        <v>853</v>
+      </c>
+      <c r="G325" s="22" t="s">
+        <v>853</v>
+      </c>
+      <c r="H325" s="22" t="s">
+        <v>853</v>
+      </c>
+      <c r="I325" s="22" t="s">
+        <v>853</v>
+      </c>
+      <c r="J325" s="22" t="s">
+        <v>853</v>
+      </c>
+      <c r="N325" s="22" t="s">
+        <v>853</v>
+      </c>
+      <c r="O325" s="22" t="s">
+        <v>853</v>
+      </c>
+      <c r="T325" s="34" t="s">
+        <v>852</v>
+      </c>
+      <c r="U325" s="23">
+        <v>71</v>
+      </c>
+      <c r="V325" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="B326" s="22" t="s">
+        <v>856</v>
+      </c>
+      <c r="G326" s="22" t="s">
+        <v>856</v>
+      </c>
+      <c r="H326" s="22" t="s">
+        <v>856</v>
+      </c>
+      <c r="I326" s="22" t="s">
+        <v>856</v>
+      </c>
+      <c r="J326" s="22" t="s">
+        <v>856</v>
+      </c>
+      <c r="K326" s="22" t="s">
+        <v>856</v>
+      </c>
+      <c r="L326" s="21" t="s">
+        <v>855</v>
+      </c>
+      <c r="T326" s="34" t="s">
+        <v>854</v>
+      </c>
+      <c r="U326" s="23">
+        <v>79</v>
+      </c>
+      <c r="V326" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="E327" s="22" t="s">
+        <v>859</v>
+      </c>
+      <c r="F327" s="22" t="s">
+        <v>859</v>
+      </c>
+      <c r="L327" s="22" t="s">
+        <v>859</v>
+      </c>
+      <c r="M327" s="22" t="s">
+        <v>859</v>
+      </c>
+      <c r="N327" s="22" t="s">
+        <v>859</v>
+      </c>
+      <c r="O327" s="22" t="s">
+        <v>859</v>
+      </c>
+      <c r="P327" s="22" t="s">
+        <v>859</v>
+      </c>
+      <c r="Q327" s="22" t="s">
+        <v>859</v>
+      </c>
+      <c r="R327" s="22" t="s">
+        <v>859</v>
+      </c>
+      <c r="S327" s="22" t="s">
+        <v>859</v>
+      </c>
+      <c r="T327" s="34" t="s">
+        <v>857</v>
+      </c>
+      <c r="U327" s="23">
+        <v>95</v>
+      </c>
+      <c r="V327" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+      <c r="E328" s="22" t="s">
+        <v>860</v>
+      </c>
+      <c r="F328" s="22" t="s">
+        <v>860</v>
+      </c>
+      <c r="L328" s="22" t="s">
+        <v>860</v>
+      </c>
+      <c r="M328" s="22" t="s">
+        <v>860</v>
+      </c>
+      <c r="R328" s="22" t="s">
+        <v>860</v>
+      </c>
+      <c r="S328" s="22" t="s">
+        <v>860</v>
+      </c>
+      <c r="T328" s="34" t="s">
+        <v>858</v>
+      </c>
+      <c r="U328" s="23">
+        <v>95</v>
+      </c>
+      <c r="V328" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="E329" s="22"/>
+      <c r="L329" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="M329" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="R329" s="22"/>
+      <c r="T329" s="34" t="s">
+        <v>861</v>
+      </c>
+      <c r="U329" s="23">
+        <v>97</v>
+      </c>
+      <c r="V329" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="N330" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="O330" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="P330" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="Q330" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="T330" s="34" t="s">
+        <v>862</v>
+      </c>
+      <c r="U330" s="23">
+        <v>101</v>
+      </c>
+      <c r="V330" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="B331" s="22" t="s">
+        <v>864</v>
+      </c>
+      <c r="C331" s="22" t="s">
+        <v>864</v>
+      </c>
+      <c r="D331" s="22" t="s">
+        <v>864</v>
+      </c>
+      <c r="E331" s="22" t="s">
+        <v>864</v>
+      </c>
+      <c r="F331" s="22" t="s">
+        <v>864</v>
+      </c>
+      <c r="G331" s="22" t="s">
+        <v>864</v>
+      </c>
+      <c r="H331" s="22" t="s">
+        <v>864</v>
+      </c>
+      <c r="I331" s="22" t="s">
+        <v>864</v>
+      </c>
+      <c r="J331" s="22" t="s">
+        <v>864</v>
+      </c>
+      <c r="K331" s="22" t="s">
+        <v>864</v>
+      </c>
+      <c r="L331" s="22" t="s">
+        <v>864</v>
+      </c>
+      <c r="M331" s="22" t="s">
+        <v>864</v>
+      </c>
+      <c r="N331" s="22" t="s">
+        <v>864</v>
+      </c>
+      <c r="O331" s="22" t="s">
+        <v>864</v>
+      </c>
+      <c r="P331" s="22" t="s">
+        <v>864</v>
+      </c>
+      <c r="Q331" s="22" t="s">
+        <v>864</v>
+      </c>
+      <c r="R331" s="22" t="s">
+        <v>864</v>
+      </c>
+      <c r="S331" s="22" t="s">
+        <v>864</v>
+      </c>
+      <c r="T331" s="34" t="s">
+        <v>865</v>
+      </c>
+      <c r="U331" s="23">
+        <v>107</v>
+      </c>
+      <c r="V331" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="B332" s="22" t="s">
+        <v>866</v>
+      </c>
+      <c r="C332" s="22" t="s">
+        <v>866</v>
+      </c>
+      <c r="D332" s="22" t="s">
+        <v>866</v>
+      </c>
+      <c r="I332" s="22" t="s">
+        <v>866</v>
+      </c>
+      <c r="J332" s="22" t="s">
+        <v>866</v>
+      </c>
+      <c r="K332" s="22" t="s">
+        <v>866</v>
+      </c>
+      <c r="T332" s="34" t="s">
+        <v>865</v>
+      </c>
+      <c r="U332" s="23">
+        <v>107</v>
+      </c>
+      <c r="V332" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="2:22" ht="14.1" customHeight="1" x14ac:dyDescent="1.35">
+      <c r="I333" s="22" t="s">
+        <v>868</v>
+      </c>
+      <c r="J333" s="22" t="s">
+        <v>868</v>
+      </c>
+      <c r="K333" s="22" t="s">
+        <v>868</v>
+      </c>
+      <c r="T333" s="34" t="s">
+        <v>867</v>
+      </c>
+      <c r="U333" s="23">
+        <v>109</v>
+      </c>
+      <c r="V333" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+      <c r="P334" s="22" t="s">
+        <v>870</v>
+      </c>
+      <c r="Q334" s="22" t="s">
+        <v>870</v>
+      </c>
+      <c r="T334" s="34" t="s">
+        <v>869</v>
+      </c>
+      <c r="U334" s="23">
+        <v>110</v>
+      </c>
+      <c r="V334" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="E335" s="22" t="s">
+        <v>872</v>
+      </c>
+      <c r="F335" s="22" t="s">
+        <v>872</v>
+      </c>
+      <c r="T335" s="34" t="s">
+        <v>871</v>
+      </c>
+      <c r="U335" s="23">
+        <v>110</v>
+      </c>
+      <c r="V335" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="C336" s="22" t="s">
+        <v>873</v>
+      </c>
+      <c r="D336" s="22" t="s">
+        <v>873</v>
+      </c>
+      <c r="E336" s="22" t="s">
+        <v>873</v>
+      </c>
+      <c r="F336" s="22" t="s">
+        <v>873</v>
+      </c>
+      <c r="R336" s="22" t="s">
+        <v>873</v>
+      </c>
+      <c r="S336" s="22" t="s">
+        <v>873</v>
+      </c>
+      <c r="T336" s="34" t="s">
+        <v>871</v>
+      </c>
+      <c r="U336" s="23">
+        <v>110</v>
+      </c>
+      <c r="V336" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="B337" s="22" t="s">
+        <v>875</v>
+      </c>
+      <c r="G337" s="22" t="s">
+        <v>875</v>
+      </c>
+      <c r="H337" s="22" t="s">
+        <v>875</v>
+      </c>
+      <c r="I337" s="22" t="s">
+        <v>875</v>
+      </c>
+      <c r="J337" s="22" t="s">
+        <v>875</v>
+      </c>
+      <c r="T337" s="34" t="s">
+        <v>874</v>
+      </c>
+      <c r="U337" s="23">
+        <v>110</v>
+      </c>
+      <c r="V337" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+      <c r="G338" s="22" t="s">
+        <v>877</v>
+      </c>
+      <c r="H338" s="22" t="s">
+        <v>877</v>
+      </c>
+      <c r="T338" s="34" t="s">
+        <v>876</v>
+      </c>
+      <c r="U338" s="23">
+        <v>112</v>
+      </c>
+      <c r="V338" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+      <c r="C339" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="D339" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="N339" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="O339" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="P339" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="Q339" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="T339" s="34" t="s">
+        <v>876</v>
+      </c>
+      <c r="U339" s="23">
+        <v>112</v>
+      </c>
+      <c r="V339" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+      <c r="B340" s="22" t="s">
+        <v>879</v>
+      </c>
+      <c r="C340" s="22" t="s">
+        <v>879</v>
+      </c>
+      <c r="D340" s="22" t="s">
+        <v>879</v>
+      </c>
+      <c r="G340" s="22" t="s">
+        <v>879</v>
+      </c>
+      <c r="H340" s="22" t="s">
+        <v>879</v>
+      </c>
+      <c r="I340" s="22" t="s">
+        <v>879</v>
+      </c>
+      <c r="J340" s="22" t="s">
+        <v>879</v>
+      </c>
+      <c r="N340" s="22" t="s">
+        <v>879</v>
+      </c>
+      <c r="O340" s="22" t="s">
+        <v>879</v>
+      </c>
+      <c r="P340" s="22" t="s">
+        <v>879</v>
+      </c>
+      <c r="Q340" s="22" t="s">
+        <v>879</v>
+      </c>
+      <c r="T340" s="34" t="s">
+        <v>878</v>
+      </c>
+      <c r="U340" s="23">
+        <v>115</v>
+      </c>
+      <c r="V340" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="2:22" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="R341" s="22" t="s">
+        <v>882</v>
+      </c>
+      <c r="S341" s="22" t="s">
+        <v>882</v>
+      </c>
+      <c r="T341" s="34" t="s">
+        <v>881</v>
+      </c>
+      <c r="U341" s="23">
+        <v>119</v>
+      </c>
+      <c r="V341" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="2:22" ht="62.1" x14ac:dyDescent="1.35">
+      <c r="B342" s="22" t="s">
+        <v>884</v>
+      </c>
+      <c r="C342" s="22" t="s">
+        <v>884</v>
+      </c>
+      <c r="D342" s="22" t="s">
+        <v>884</v>
+      </c>
+      <c r="G342" s="22" t="s">
+        <v>884</v>
+      </c>
+      <c r="H342" s="22" t="s">
+        <v>884</v>
+      </c>
+      <c r="I342" s="22" t="s">
+        <v>884</v>
+      </c>
+      <c r="J342" s="22" t="s">
+        <v>884</v>
+      </c>
+      <c r="K342" s="22" t="s">
+        <v>884</v>
+      </c>
+      <c r="P342" s="22" t="s">
+        <v>884</v>
+      </c>
+      <c r="Q342" s="22" t="s">
+        <v>884</v>
+      </c>
+      <c r="T342" s="34" t="s">
+        <v>883</v>
+      </c>
+      <c r="U342" s="23">
+        <v>116</v>
+      </c>
+      <c r="V342" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+      <c r="E343" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="F343" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="N343" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="O343" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="P343" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q343" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="R343" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="S343" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="T343" s="34" t="s">
+        <v>885</v>
+      </c>
+      <c r="U343" s="23">
+        <v>116</v>
+      </c>
+      <c r="V343" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="2:22" ht="20.7" x14ac:dyDescent="1.35">
+      <c r="U344" s="23" t="s">
+        <v>886</v>
+      </c>
+      <c r="V344" s="24">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -13016,11 +14024,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77114127-4DCE-4987-8CAC-47A2103A8FA5}">
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S84" sqref="S84"/>
+      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -13784,7 +14792,7 @@
       </c>
       <c r="V21" s="24"/>
     </row>
-    <row r="22" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A22" s="31"/>
       <c r="B22" s="31" t="s">
         <v>77</v>
@@ -13826,7 +14834,7 @@
       </c>
       <c r="V22" s="24"/>
     </row>
-    <row r="23" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A23" s="31"/>
       <c r="B23" s="31" t="s">
         <v>122</v>
@@ -13882,7 +14890,7 @@
       </c>
       <c r="V23" s="24"/>
     </row>
-    <row r="24" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A24" s="31"/>
       <c r="B24" s="31" t="s">
         <v>129</v>
@@ -13926,7 +14934,7 @@
       </c>
       <c r="V24" s="24"/>
     </row>
-    <row r="25" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A25" s="31"/>
       <c r="B25" s="31"/>
       <c r="C25" s="31" t="s">
@@ -13960,7 +14968,7 @@
       </c>
       <c r="V25" s="24"/>
     </row>
-    <row r="26" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A26" s="31"/>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
@@ -13990,7 +14998,7 @@
       </c>
       <c r="V26" s="24"/>
     </row>
-    <row r="27" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A27" s="31"/>
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
@@ -14020,7 +15028,7 @@
       </c>
       <c r="V27" s="24"/>
     </row>
-    <row r="28" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A28" s="31"/>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
@@ -14046,7 +15054,7 @@
       </c>
       <c r="V28" s="24"/>
     </row>
-    <row r="29" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
@@ -14080,7 +15088,7 @@
       </c>
       <c r="V29" s="24"/>
     </row>
-    <row r="30" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A30" s="31"/>
       <c r="B30" s="31" t="s">
         <v>137</v>
@@ -14142,7 +15150,7 @@
       </c>
       <c r="V30" s="24"/>
     </row>
-    <row r="31" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A31" s="31"/>
       <c r="B31" s="31" t="s">
         <v>77</v>
@@ -14180,7 +15188,7 @@
       </c>
       <c r="V31" s="24"/>
     </row>
-    <row r="32" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A32" s="31"/>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
@@ -14208,7 +15216,7 @@
       </c>
       <c r="V32" s="24"/>
     </row>
-    <row r="33" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A33" s="31"/>
       <c r="B33" s="31" t="s">
         <v>77</v>
@@ -14250,7 +15258,7 @@
       </c>
       <c r="V33" s="24"/>
     </row>
-    <row r="34" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A34" s="31"/>
       <c r="B34" s="31" t="s">
         <v>77</v>
@@ -14292,7 +15300,7 @@
       </c>
       <c r="V34" s="24"/>
     </row>
-    <row r="35" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A35" s="31"/>
       <c r="B35" s="31" t="s">
         <v>77</v>
@@ -14326,7 +15334,7 @@
       </c>
       <c r="V35" s="24"/>
     </row>
-    <row r="36" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A36" s="31"/>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
@@ -14360,7 +15368,7 @@
       </c>
       <c r="V36" s="24"/>
     </row>
-    <row r="37" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A37" s="31"/>
       <c r="B37" s="31"/>
       <c r="C37" s="31" t="s">
@@ -14392,7 +15400,7 @@
       </c>
       <c r="V37" s="24"/>
     </row>
-    <row r="38" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A38" s="31"/>
       <c r="B38" s="31"/>
       <c r="C38" s="31"/>
@@ -14420,7 +15428,7 @@
       </c>
       <c r="V38" s="24"/>
     </row>
-    <row r="39" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A39" s="31"/>
       <c r="B39" s="31"/>
       <c r="C39" s="31"/>
@@ -14464,7 +15472,7 @@
       </c>
       <c r="V39" s="24"/>
     </row>
-    <row r="40" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A40" s="31"/>
       <c r="B40" s="31" t="s">
         <v>220</v>
@@ -14510,7 +15518,7 @@
       </c>
       <c r="V40" s="24"/>
     </row>
-    <row r="41" spans="1:22" s="19" customFormat="1" ht="41.7" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:22" s="19" customFormat="1" ht="62.1" x14ac:dyDescent="1.35">
       <c r="A41" s="31"/>
       <c r="B41" s="31"/>
       <c r="C41" s="31"/>
@@ -14554,7 +15562,7 @@
       </c>
       <c r="V41" s="24"/>
     </row>
-    <row r="42" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A42" s="31"/>
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
@@ -14582,7 +15590,7 @@
       </c>
       <c r="V42" s="24"/>
     </row>
-    <row r="43" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A43" s="31"/>
       <c r="B43" s="31" t="s">
         <v>246</v>
@@ -14626,7 +15634,7 @@
       </c>
       <c r="V43" s="24"/>
     </row>
-    <row r="44" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A44" s="31"/>
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
@@ -14656,7 +15664,7 @@
       </c>
       <c r="V44" s="24"/>
     </row>
-    <row r="45" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A45" s="31"/>
       <c r="B45" s="31"/>
       <c r="C45" s="31"/>
@@ -14686,7 +15694,7 @@
       </c>
       <c r="V45" s="24"/>
     </row>
-    <row r="46" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A46" s="31"/>
       <c r="B46" s="31" t="s">
         <v>278</v>
@@ -14736,7 +15744,7 @@
       </c>
       <c r="V46" s="24"/>
     </row>
-    <row r="47" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A47" s="31"/>
       <c r="B47" s="31"/>
       <c r="C47" s="31"/>
@@ -14768,7 +15776,7 @@
       </c>
       <c r="V47" s="24"/>
     </row>
-    <row r="48" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A48" s="31"/>
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
@@ -14796,7 +15804,7 @@
       </c>
       <c r="V48" s="24"/>
     </row>
-    <row r="49" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A49" s="31"/>
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
@@ -14826,7 +15834,7 @@
       </c>
       <c r="V49" s="24"/>
     </row>
-    <row r="50" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A50" s="31"/>
       <c r="B50" s="31" t="s">
         <v>77</v>
@@ -14868,7 +15876,7 @@
       </c>
       <c r="V50" s="24"/>
     </row>
-    <row r="51" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A51" s="31"/>
       <c r="B51" s="31"/>
       <c r="C51" s="31"/>
@@ -14896,7 +15904,7 @@
       </c>
       <c r="V51" s="24"/>
     </row>
-    <row r="52" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A52" s="31"/>
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
@@ -14926,7 +15934,7 @@
       </c>
       <c r="V52" s="24"/>
     </row>
-    <row r="53" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A53" s="31"/>
       <c r="B53" s="31" t="s">
         <v>77</v>
@@ -14966,7 +15974,7 @@
       </c>
       <c r="V53" s="24"/>
     </row>
-    <row r="54" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A54" s="31"/>
       <c r="B54" s="31"/>
       <c r="C54" s="31"/>
@@ -14996,7 +16004,7 @@
       </c>
       <c r="V54" s="24"/>
     </row>
-    <row r="55" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A55" s="31"/>
       <c r="B55" s="31"/>
       <c r="C55" s="31"/>
@@ -15028,7 +16036,7 @@
       </c>
       <c r="V55" s="24"/>
     </row>
-    <row r="56" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A56" s="31"/>
       <c r="B56" s="31"/>
       <c r="C56" s="31"/>
@@ -15062,7 +16070,7 @@
       </c>
       <c r="V56" s="24"/>
     </row>
-    <row r="57" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A57" s="31"/>
       <c r="B57" s="31"/>
       <c r="C57" s="31"/>
@@ -15098,7 +16106,7 @@
       </c>
       <c r="V57" s="24"/>
     </row>
-    <row r="58" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A58" s="31"/>
       <c r="B58" s="31"/>
       <c r="C58" s="31"/>
@@ -15144,7 +16152,7 @@
       </c>
       <c r="V58" s="24"/>
     </row>
-    <row r="59" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A59" s="31"/>
       <c r="B59" s="31"/>
       <c r="C59" s="31"/>
@@ -15174,7 +16182,7 @@
       </c>
       <c r="V59" s="24"/>
     </row>
-    <row r="60" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A60" s="31"/>
       <c r="B60" s="31"/>
       <c r="C60" s="31"/>
@@ -15212,7 +16220,7 @@
       </c>
       <c r="V60" s="24"/>
     </row>
-    <row r="61" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A61" s="31"/>
       <c r="B61" s="31" t="s">
         <v>396</v>
@@ -15260,7 +16268,7 @@
       </c>
       <c r="V61" s="24"/>
     </row>
-    <row r="62" spans="1:22" s="19" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:22" s="19" customFormat="1" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A62" s="31"/>
       <c r="B62" s="31" t="s">
         <v>77</v>
@@ -15296,7 +16304,7 @@
       </c>
       <c r="V62" s="24"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:22" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B63" s="31" t="s">
         <v>77</v>
       </c>
@@ -15331,7 +16339,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:22" ht="20.7" x14ac:dyDescent="1.35">
       <c r="L64" s="32" t="s">
         <v>435</v>
       </c>
@@ -15339,7 +16347,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="E65" s="32" t="s">
         <v>437</v>
       </c>
@@ -15350,7 +16358,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="M66" s="32" t="s">
         <v>317</v>
       </c>
@@ -15358,7 +16366,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="M67" s="32" t="s">
         <v>317</v>
       </c>
@@ -15610,7 +16618,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="2:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B79" s="31" t="s">
         <v>77</v>
       </c>
@@ -15639,7 +16647,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="2:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="H80" s="31" t="s">
         <v>122</v>
       </c>
@@ -15710,6 +16718,44 @@
       </c>
       <c r="U84" s="32" t="s">
         <v>811</v>
+      </c>
+    </row>
+    <row r="85" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B85" s="32" t="s">
+        <v>712</v>
+      </c>
+      <c r="E85" s="32" t="s">
+        <v>712</v>
+      </c>
+      <c r="F85" s="32" t="s">
+        <v>712</v>
+      </c>
+      <c r="G85" s="32" t="s">
+        <v>712</v>
+      </c>
+      <c r="H85" s="32" t="s">
+        <v>712</v>
+      </c>
+      <c r="M85" s="32" t="s">
+        <v>712</v>
+      </c>
+      <c r="N85" s="32" t="s">
+        <v>712</v>
+      </c>
+      <c r="Q85" s="32" t="s">
+        <v>712</v>
+      </c>
+      <c r="R85" s="32" t="s">
+        <v>712</v>
+      </c>
+      <c r="S85" s="32" t="s">
+        <v>712</v>
+      </c>
+      <c r="T85" s="32" t="s">
+        <v>712</v>
+      </c>
+      <c r="U85" s="32" t="s">
+        <v>880</v>
       </c>
     </row>
   </sheetData>

--- a/جدول إختلافات القراء.xlsx
+++ b/جدول إختلافات القراء.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amr Saber\Documents\GitHub\QiraAat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A397F914-F20C-4F00-9545-C9DE9B069584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F343D9-B393-402F-BA7B-3118652984D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19275" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{05251348-2C78-4EB4-8303-7D5EDAD52AE6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2964" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3075" uniqueCount="912">
   <si>
     <t>خلف البزار</t>
   </si>
@@ -1739,10 +1739,6 @@
     <t>ء’ا۬نتم</t>
   </si>
   <si>
-    <t>1)ءا۬نتم
-2)ءآنتم</t>
-  </si>
-  <si>
     <t>ءا۬نتم</t>
   </si>
   <si>
@@ -2815,30 +2811,6 @@
     <t>قَالَ سُبْحَـٰنَكَ مَا يَكُونُ لِىٓ أَنْ أَقُولَ مَا لَيْسَ لِى بِحَقٍّ ۚ</t>
   </si>
   <si>
-    <t>ص136</t>
-  </si>
-  <si>
-    <t>الصراط
-الص۬راط</t>
-  </si>
-  <si>
-    <t>بارئْكم
-اختلاس ثلثى الكسرة</t>
-  </si>
-  <si>
-    <t>يأمرْكم
-اختلاس الضمة</t>
-  </si>
-  <si>
-    <t>إبراهام
-إبراهيم
-في جميع سورة البقرة</t>
-  </si>
-  <si>
-    <t>ء’أنتم
-ء’ا۬نتم</t>
-  </si>
-  <si>
     <t>فنِعِمَّا باختلاس الكسرة
 فِنِعْمَّا</t>
   </si>
@@ -2861,13 +2833,116 @@
   <si>
     <t xml:space="preserve"> نِعِ۪مَّا
  نِعْمَّا</t>
+  </si>
+  <si>
+    <t>وَلَقَدِ ٱسْتُهْزِئَ بِرُسُلٍۢ مِّن قَبْلِكَ فَحَاقَ بِٱلَّذِينَ سَخِرُوا۟ مِنْهُم مَّا كَانُوا۟ بِهِۦ يَسْتَهْزِءُونَ</t>
+  </si>
+  <si>
+    <t>ولقدُ</t>
+  </si>
+  <si>
+    <t>ولقدُ استهزىَ</t>
+  </si>
+  <si>
+    <t>مَّن يُصْرَفْ عَنْهُ يَوْمَئِذٍۢ فَقَدْ رَحِمَهُۥ ۚ وَذَٰلِكَ ٱلْفَوْزُ ٱلْمُبِينُ</t>
+  </si>
+  <si>
+    <t>يَصْرِفْ</t>
+  </si>
+  <si>
+    <t>وَيَوْمَ نَحْشُرُهُمْ جَمِيعًۭا ثُمَّ نَقُولُ لِلَّذِينَ أَشْرَكُوٓا۟ أَيْنَ شُرَكَآؤُكُمُ ٱلَّذِينَ كُنتُمْ تَزْعُمُونَ</t>
+  </si>
+  <si>
+    <t>يحشرهم</t>
+  </si>
+  <si>
+    <t>يقول</t>
+  </si>
+  <si>
+    <t>ثُمَّ لَمْ تَكُن فِتْنَتُهُمْ إِلَّآ أَن قَالُوا۟ وَٱللَّهِ رَبِّنَا مَا كُنَّا مُشْرِكِينَ</t>
+  </si>
+  <si>
+    <t>فتنتَهم</t>
+  </si>
+  <si>
+    <t>ربَّنا</t>
+  </si>
+  <si>
+    <t>وَلَوْ تَرَىٰٓ إِذْ وُقِفُوا۟ عَلَى ٱلنَّارِ فَقَالُوا۟ يَـٰلَيْتَنَا نُرَدُّ وَلَا نُكَذِّبَ بِـَٔايَـٰتِ رَبِّنَا وَنَكُونَ مِنَ ٱلْمُؤْمِنِينَ</t>
+  </si>
+  <si>
+    <t>نكذبُ</t>
+  </si>
+  <si>
+    <t>ونكونُ</t>
+  </si>
+  <si>
+    <t>وَمَا ٱلْحَيَوٰةُ ٱلدُّنْيَآ إِلَّا لَعِبٌۭ وَلَهْوٌۭ ۖ وَلَلدَّارُ ٱلْـَٔاخِرَةُ خَيْرٌۭ لِّلَّذِينَ يَتَّقُونَ ۗ أَفَلَا تَعْقِلُونَ</t>
+  </si>
+  <si>
+    <t>ولدار ٱلْـَٔاخِرَةِ</t>
+  </si>
+  <si>
+    <t>يعقلون</t>
+  </si>
+  <si>
+    <t>قَدْ نَعْلَمُ إِنَّهُۥ لَيَحْزُنُكَ ٱلَّذِى يَقُولُونَ ۖ فَإِنَّهُمْ لَا يُكَذِّبُونَكَ وَلَـٰكِنَّ ٱلظَّـٰلِمِينَ بِـَٔايَـٰتِ ٱللَّهِ يَجْحَدُونَ</t>
+  </si>
+  <si>
+    <t>لَيُحْزِنُكَ</t>
+  </si>
+  <si>
+    <t>يُكْذِبونك</t>
+  </si>
+  <si>
+    <t>۞ إِنَّمَا يَسْتَجِيبُ ٱلَّذِينَ يَسْمَعُونَ ۘ وَٱلْمَوْتَىٰ يَبْعَثُهُمُ ٱللَّهُ ثُمَّ إِلَيْهِ يُرْجَعُونَ</t>
+  </si>
+  <si>
+    <t>يَرجِعون</t>
+  </si>
+  <si>
+    <t>قُلْ إِنَّ ٱللَّهَ قَادِرٌ عَلَىٰٓ أَن يُنَزِّلَ ءَايَةًۭ وَلَـٰكِنَّ أَكْثَرَهُمْ لَا يَعْلَمُونَ</t>
+  </si>
+  <si>
+    <t>فَلَمَّا نَسُوا۟ مَا ذُكِّرُوا۟ بِهِۦ فَتَحْنَا عَلَيْهِمْ أَبْوَٰبَ كُلِّ شَىْءٍ</t>
+  </si>
+  <si>
+    <t>فتَّحنا</t>
+  </si>
+  <si>
+    <t>ص141</t>
+  </si>
+  <si>
+    <t>●الصراط
+●الص۬راط</t>
+  </si>
+  <si>
+    <t>●بارئْكم
+●اختلاس ثلثى الكسرة</t>
+  </si>
+  <si>
+    <t>●يأمرْكم
+●اختلاس الضمة</t>
+  </si>
+  <si>
+    <t>●إبراهام
+●إبراهيم
+في جميع سورة البقرة</t>
+  </si>
+  <si>
+    <t>●ءا۬نتم
+●ءآنتم</t>
+  </si>
+  <si>
+    <t>ء’أنتم●
+ء’ا۬نتم●</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2925,6 +3000,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Dubai"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3071,7 +3152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3189,6 +3270,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3875,15 +3957,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD83332C-D38C-40A7-AE68-82D7A06EF479}">
-  <dimension ref="A1:U344"/>
+  <dimension ref="A1:U360"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="C274" sqref="C274"/>
+      <selection pane="bottomLeft" activeCell="N108" sqref="N108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.7" x14ac:dyDescent="1.35"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="8.3671875" style="20" customWidth="1"/>
     <col min="2" max="2" width="8.3671875" style="21" customWidth="1"/>
@@ -3908,7 +3990,7 @@
     <col min="22" max="16384" width="8.83984375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="1.35">
+    <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
       <c r="C1" s="8" t="s">
@@ -3949,7 +4031,7 @@
       <c r="T1" s="9"/>
       <c r="U1" s="10"/>
     </row>
-    <row r="2" spans="1:21" s="13" customFormat="1" ht="41.4" x14ac:dyDescent="1.35">
+    <row r="2" spans="1:21" s="13" customFormat="1" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -3996,7 +4078,7 @@
       </c>
       <c r="U2" s="12"/>
     </row>
-    <row r="3" spans="1:21" s="18" customFormat="1" ht="41.7" thickBot="1" x14ac:dyDescent="1.4">
+    <row r="3" spans="1:21" s="18" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
@@ -4054,10 +4136,10 @@
       <c r="S3" s="40"/>
       <c r="T3" s="40"/>
       <c r="U3" s="17" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="1.35">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="D4" s="22" t="s">
         <v>206</v>
       </c>
@@ -4108,8 +4190,9 @@
       <c r="C5" s="22" t="s">
         <v>63</v>
       </c>
+      <c r="F5" s="45"/>
       <c r="H5" s="25" t="s">
-        <v>876</v>
+        <v>906</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>514</v>
@@ -4127,7 +4210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="6" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="C6" s="22" t="s">
         <v>65</v>
       </c>
@@ -4147,7 +4230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="7" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="M7" s="21" t="s">
         <v>66</v>
       </c>
@@ -4176,7 +4259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="8" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B8" s="22" t="s">
         <v>69</v>
       </c>
@@ -4223,7 +4306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="9" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="C9" s="22" t="s">
         <v>82</v>
       </c>
@@ -4238,7 +4321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="10" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B10" s="21" t="s">
         <v>84</v>
       </c>
@@ -4257,7 +4340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="11" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="H11" s="21" t="s">
         <v>94</v>
       </c>
@@ -4292,7 +4375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="13" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B13" s="21" t="s">
         <v>106</v>
       </c>
@@ -4311,7 +4394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="14" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="F14" s="22" t="s">
         <v>77</v>
       </c>
@@ -4328,7 +4411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="15" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B15" s="21" t="s">
         <v>109</v>
       </c>
@@ -4358,7 +4441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="16" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A16" s="22"/>
       <c r="B16" s="21" t="s">
         <v>117</v>
@@ -4398,7 +4481,7 @@
         <v>167</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>877</v>
+        <v>907</v>
       </c>
       <c r="S17" s="34" t="s">
         <v>118</v>
@@ -4410,7 +4493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="18" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B18" s="22"/>
       <c r="D18" s="21" t="s">
         <v>123</v>
@@ -4448,7 +4531,7 @@
         <v>166</v>
       </c>
       <c r="N19" s="26" t="s">
-        <v>878</v>
+        <v>908</v>
       </c>
       <c r="S19" s="34" t="s">
         <v>133</v>
@@ -4478,7 +4561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="21" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="D21" s="21" t="s">
@@ -4499,7 +4582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="22" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="C22" s="22" t="s">
         <v>121</v>
       </c>
@@ -4517,7 +4600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="23" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="D23" s="21" t="s">
         <v>143</v>
       </c>
@@ -4546,7 +4629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="24" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="F24" s="21" t="s">
         <v>146</v>
       </c>
@@ -4575,7 +4658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="25" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B25" s="21" t="s">
         <v>148</v>
       </c>
@@ -4606,7 +4689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="26" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A26" s="20" t="s">
         <v>152</v>
       </c>
@@ -4657,7 +4740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="27" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="E27" s="21"/>
       <c r="H27" s="21" t="s">
         <v>154</v>
@@ -4675,7 +4758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="28" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A28" s="20" t="s">
         <v>155</v>
       </c>
@@ -4747,7 +4830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="30" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B30" s="22"/>
       <c r="O30" s="21" t="s">
         <v>158</v>
@@ -4765,7 +4848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="31" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B31" s="22" t="s">
         <v>165</v>
       </c>
@@ -4812,7 +4895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="33" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="F33" s="21" t="s">
         <v>178</v>
       </c>
@@ -5011,7 +5094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="39" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
       <c r="D39" s="21" t="s">
@@ -5033,7 +5116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="40" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B40" s="22"/>
       <c r="H40" s="22"/>
       <c r="K40" s="21" t="s">
@@ -5052,7 +5135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="41" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="K41" s="21" t="s">
         <v>193</v>
       </c>
@@ -5069,7 +5152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="42" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B42" s="21" t="s">
         <v>195</v>
       </c>
@@ -5095,7 +5178,7 @@
     <row r="43" spans="1:21" ht="103.5" x14ac:dyDescent="1.35">
       <c r="D43" s="19"/>
       <c r="K43" s="25" t="s">
-        <v>879</v>
+        <v>909</v>
       </c>
       <c r="L43" s="22" t="s">
         <v>198</v>
@@ -5111,7 +5194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="44" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A44" s="20" t="s">
         <v>204</v>
       </c>
@@ -5170,7 +5253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="45" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="K45" s="21" t="s">
         <v>200</v>
       </c>
@@ -5193,7 +5276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="46" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A46" s="20" t="s">
         <v>208</v>
       </c>
@@ -5245,7 +5328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="47" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="K47" s="21" t="s">
         <v>202</v>
       </c>
@@ -5263,7 +5346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="48" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B48" s="21" t="s">
         <v>210</v>
       </c>
@@ -5275,7 +5358,7 @@
         <v>210</v>
       </c>
       <c r="N48" s="22" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="O48" s="21" t="s">
         <v>210</v>
@@ -5293,7 +5376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="49" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="D49" s="22" t="s">
         <v>212</v>
       </c>
@@ -5369,7 +5452,7 @@
     <row r="51" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="B51" s="22"/>
       <c r="C51" s="22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D51" s="21" t="s">
         <v>517</v>
@@ -5380,7 +5463,7 @@
       <c r="F51" s="22"/>
       <c r="H51" s="22"/>
       <c r="L51" s="26" t="s">
-        <v>880</v>
+        <v>911</v>
       </c>
       <c r="M51" s="21" t="s">
         <v>517</v>
@@ -5389,13 +5472,13 @@
         <v>517</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P51" s="22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Q51" s="25" t="s">
-        <v>518</v>
+        <v>910</v>
       </c>
       <c r="R51" s="22" t="s">
         <v>517</v>
@@ -5449,7 +5532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="53" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="K53" s="21" t="s">
         <v>223</v>
       </c>
@@ -5484,7 +5567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="55" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A55" s="22"/>
       <c r="B55" s="22"/>
       <c r="D55" s="22"/>
@@ -5502,7 +5585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="56" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="H56" s="22"/>
       <c r="O56" s="21" t="s">
         <v>229</v>
@@ -5520,7 +5603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="57" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A57" s="22"/>
       <c r="B57" s="21" t="s">
         <v>231</v>
@@ -5542,7 +5625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="58" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A58" s="20" t="s">
         <v>233</v>
       </c>
@@ -5576,7 +5659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="59" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A59" s="20" t="s">
         <v>235</v>
       </c>
@@ -5603,7 +5686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="60" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A60" s="22"/>
       <c r="B60" s="21" t="s">
         <v>238</v>
@@ -5636,7 +5719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="61" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A61" s="22"/>
       <c r="F61" s="22"/>
       <c r="H61" s="22"/>
@@ -5682,7 +5765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="63" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B63" s="22"/>
       <c r="D63" s="21" t="s">
         <v>245</v>
@@ -5702,7 +5785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="64" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A64" s="20" t="s">
         <v>248</v>
       </c>
@@ -5746,7 +5829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="65" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B65" s="22"/>
       <c r="C65" s="22" t="s">
         <v>252</v>
@@ -5761,7 +5844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="66" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A66" s="20" t="s">
         <v>254</v>
       </c>
@@ -5820,7 +5903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="67" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="F67" s="22"/>
       <c r="H67" s="22"/>
       <c r="K67" s="21" t="s">
@@ -5846,7 +5929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="68" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A68" s="22" t="s">
         <v>258</v>
       </c>
@@ -5885,7 +5968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="69" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="D69" s="21" t="s">
         <v>261</v>
       </c>
@@ -5916,7 +5999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="70" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A70" s="20" t="s">
         <v>263</v>
       </c>
@@ -5945,7 +6028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="71" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B71" s="21" t="s">
         <v>267</v>
       </c>
@@ -5966,7 +6049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="72" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B72" s="21" t="s">
         <v>270</v>
       </c>
@@ -6002,7 +6085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="73" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="D73" s="22"/>
       <c r="Q73" s="21" t="s">
         <v>273</v>
@@ -6017,7 +6100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="74" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="K74" s="21" t="s">
         <v>256</v>
       </c>
@@ -6040,7 +6123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="75" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A75" s="20" t="s">
         <v>280</v>
       </c>
@@ -6067,7 +6150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="76" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A76" s="20" t="s">
         <v>281</v>
       </c>
@@ -6095,7 +6178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="77" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A77" s="20" t="s">
         <v>282</v>
       </c>
@@ -6121,7 +6204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="78" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B78" s="21" t="s">
         <v>286</v>
       </c>
@@ -6157,7 +6240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="79" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B79" s="21" t="s">
         <v>290</v>
       </c>
@@ -6188,7 +6271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="80" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="D80" s="21" t="s">
         <v>294</v>
       </c>
@@ -6224,7 +6307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="81" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A81" s="22"/>
       <c r="B81" s="22"/>
       <c r="D81" s="22" t="s">
@@ -6248,7 +6331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="82" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A82" s="22" t="s">
         <v>298</v>
       </c>
@@ -6288,7 +6371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="83" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B83" s="22"/>
       <c r="D83" s="21" t="s">
         <v>301</v>
@@ -6327,7 +6410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="85" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B85" s="21" t="s">
         <v>309</v>
       </c>
@@ -6364,7 +6447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="86" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B86" s="22"/>
       <c r="D86" s="22"/>
       <c r="H86" s="21" t="s">
@@ -6386,7 +6469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="87" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="D87" s="22"/>
       <c r="M87" s="22" t="s">
         <v>307</v>
@@ -6405,14 +6488,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="88" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A88" s="22"/>
       <c r="B88" s="22"/>
       <c r="F88" s="22"/>
       <c r="H88" s="22"/>
       <c r="M88" s="22"/>
       <c r="P88" s="22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="S88" s="34" t="s">
         <v>312</v>
@@ -6424,7 +6507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="89" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A89" s="20" t="s">
         <v>311</v>
       </c>
@@ -6488,7 +6571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="91" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="D91" s="21" t="s">
         <v>318</v>
       </c>
@@ -6536,7 +6619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="93" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A93" s="20" t="s">
         <v>325</v>
       </c>
@@ -6600,7 +6683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="95" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="C95" s="22" t="s">
         <v>329</v>
       </c>
@@ -6659,7 +6742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="97" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A97" s="22" t="s">
         <v>333</v>
       </c>
@@ -6721,7 +6804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="98" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A98" s="22" t="s">
         <v>338</v>
       </c>
@@ -6781,7 +6864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="99" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B99" s="22" t="s">
         <v>84</v>
       </c>
@@ -6800,7 +6883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="100" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="D100" s="21" t="s">
         <v>344</v>
       </c>
@@ -6830,7 +6913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="101" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B101" s="22"/>
       <c r="D101" s="22" t="s">
         <v>343</v>
@@ -6860,7 +6943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="102" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A102" s="22"/>
       <c r="C102" s="22" t="s">
         <v>329</v>
@@ -6878,7 +6961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="103" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B103" s="21" t="s">
         <v>346</v>
       </c>
@@ -6907,7 +6990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="104" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A104" s="22"/>
       <c r="B104" s="21" t="s">
         <v>348</v>
@@ -6941,7 +7024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="105" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="F105" s="22"/>
       <c r="H105" s="21" t="s">
         <v>358</v>
@@ -6959,7 +7042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="106" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A106" s="20" t="s">
         <v>352</v>
       </c>
@@ -6985,7 +7068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="107" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A107" s="22" t="s">
         <v>354</v>
       </c>
@@ -7062,7 +7145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="109" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A109" s="22" t="s">
         <v>367</v>
       </c>
@@ -7093,7 +7176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="110" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="D110" s="22" t="s">
         <v>370</v>
       </c>
@@ -7115,7 +7198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="111" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A111" s="22"/>
       <c r="B111" s="21" t="s">
         <v>372</v>
@@ -7227,7 +7310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="114" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="C114" s="21"/>
       <c r="E114" s="21"/>
       <c r="N114" s="21"/>
@@ -7245,7 +7328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="115" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B115" s="21" t="s">
         <v>382</v>
       </c>
@@ -7285,7 +7368,7 @@
         <v>386</v>
       </c>
       <c r="J116" s="26" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="K116" s="22" t="s">
         <v>386</v>
@@ -7294,14 +7377,14 @@
         <v>386</v>
       </c>
       <c r="M116" s="26" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="N116" s="26" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="O116" s="22"/>
       <c r="R116" s="26" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="S116" s="34" t="s">
         <v>385</v>
@@ -7377,13 +7460,13 @@
       <c r="A118" s="22"/>
       <c r="F118" s="22"/>
       <c r="H118" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I118" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J118" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="S118" s="34" t="s">
         <v>393</v>
@@ -7395,7 +7478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="119" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A119" s="22"/>
       <c r="D119" s="21" t="s">
         <v>395</v>
@@ -7415,7 +7498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="120" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A120" s="22"/>
       <c r="F120" s="22"/>
       <c r="H120" s="22"/>
@@ -7497,7 +7580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="122" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B122" s="22" t="s">
         <v>84</v>
       </c>
@@ -7522,7 +7605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="123" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B123" s="22"/>
       <c r="D123" s="22" t="s">
         <v>402</v>
@@ -7658,7 +7741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="127" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A127" s="22"/>
       <c r="B127" s="22"/>
       <c r="D127" s="21" t="s">
@@ -7704,7 +7787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="129" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="D129" s="21" t="s">
         <v>420</v>
       </c>
@@ -7811,7 +7894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="132" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A132" s="20" t="s">
         <v>417</v>
       </c>
@@ -7838,7 +7921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="133" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B133" s="22" t="s">
         <v>419</v>
       </c>
@@ -7913,7 +7996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="136" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="F136" s="22" t="s">
         <v>435</v>
       </c>
@@ -8029,7 +8112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="140" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="D140" s="22" t="s">
         <v>443</v>
       </c>
@@ -8095,7 +8178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="143" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B143" s="22" t="s">
         <v>449</v>
       </c>
@@ -8121,7 +8204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="144" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B144" s="22" t="s">
         <v>451</v>
       </c>
@@ -8168,7 +8251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="145" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B145" s="22" t="s">
         <v>452</v>
       </c>
@@ -8253,7 +8336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="147" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="D147" s="22" t="s">
         <v>344</v>
       </c>
@@ -8416,7 +8499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="154" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="D154" s="22" t="s">
         <v>467</v>
       </c>
@@ -8587,7 +8670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="160" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B160" s="22" t="s">
         <v>478</v>
       </c>
@@ -8604,7 +8687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="161" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="D161" s="22" t="s">
         <v>480</v>
       </c>
@@ -8847,7 +8930,7 @@
         <v>166</v>
       </c>
       <c r="N167" s="25" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="O167" s="22" t="s">
         <v>501</v>
@@ -8876,7 +8959,7 @@
         <v>503</v>
       </c>
       <c r="N168" s="25" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="S168" s="34" t="s">
         <v>502</v>
@@ -8928,7 +9011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="171" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A171" s="22" t="s">
         <v>508</v>
       </c>
@@ -9062,25 +9145,25 @@
     </row>
     <row r="174" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="B174" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C174" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M174" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N174" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O174" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P174" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="S174" s="34" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="T174" s="23">
         <v>93</v>
@@ -9091,40 +9174,40 @@
     </row>
     <row r="175" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="B175" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C175" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J175" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K175" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L175" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M175" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N175" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O175" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P175" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="Q175" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="R175" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="S175" s="34" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="T175" s="23">
         <v>97</v>
@@ -9135,25 +9218,25 @@
     </row>
     <row r="176" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="F176" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G176" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M176" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="N176" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O176" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P176" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="S176" s="34" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="T176" s="23">
         <v>103</v>
@@ -9164,16 +9247,16 @@
     </row>
     <row r="177" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="F177" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="G177" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q177" s="21" t="s">
         <v>529</v>
       </c>
-      <c r="G177" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q177" s="21" t="s">
-        <v>530</v>
-      </c>
       <c r="S177" s="34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="T177" s="23">
         <v>102</v>
@@ -9184,34 +9267,34 @@
     </row>
     <row r="178" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="A178" s="22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B178" s="22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C178" s="22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F178" s="22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G178" s="22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H178" s="22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I178" s="22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K178" s="22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L178" s="22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="S178" s="34" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="T178" s="23">
         <v>109</v>
@@ -9220,48 +9303,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="179" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B179" s="22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C179" s="22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D179" s="22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E179" s="22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J179" s="22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K179" s="22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L179" s="22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M179" s="22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N179" s="22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O179" s="22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P179" s="22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Q179" s="22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="R179" s="22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="S179" s="34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T179" s="23">
         <v>115</v>
@@ -9270,48 +9353,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="180" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B180" s="22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C180" s="22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D180" s="22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E180" s="22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J180" s="22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K180" s="22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L180" s="22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M180" s="22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N180" s="22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O180" s="22" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="P180" s="22" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="Q180" s="22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="R180" s="22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S180" s="34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T180" s="23">
         <v>115</v>
@@ -9320,20 +9403,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="181" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B181" s="22"/>
       <c r="D181" s="22" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E181" s="22" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K181" s="19"/>
       <c r="M181" s="22"/>
       <c r="O181" s="22"/>
       <c r="Q181" s="22"/>
       <c r="S181" s="34" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="T181" s="23">
         <v>120</v>
@@ -9344,31 +9427,31 @@
     </row>
     <row r="182" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="B182" s="22" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C182" s="22" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M182" s="22" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N182" s="22" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O182" s="22" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="P182" s="22" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Q182" s="22" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="R182" s="22" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="S182" s="34" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T182" s="23">
         <v>120</v>
@@ -9377,12 +9460,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="183" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="Q183" s="21" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="S183" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="T183" s="23">
         <v>117</v>
@@ -9393,13 +9476,13 @@
     </row>
     <row r="184" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="K184" s="22" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L184" s="22" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S184" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="T184" s="23">
         <v>124</v>
@@ -9410,41 +9493,41 @@
     </row>
     <row r="185" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="A185" s="22" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D185" s="22" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E185" s="22" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F185" s="22" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G185" s="22" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H185" s="22" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I185" s="22" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K185" s="22" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L185" s="22" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M185" s="22"/>
       <c r="Q185" s="22" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="R185" s="22" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="S185" s="34" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="T185" s="23">
         <v>125</v>
@@ -9453,33 +9536,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="186" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B186" s="22" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C186" s="22" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D186" s="22" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E186" s="22" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K186" s="22" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L186" s="22" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O186" s="22" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P186" s="22" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="S186" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="T186" s="23">
         <v>130</v>
@@ -9488,33 +9571,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="187" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="D187" s="22" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E187" s="22" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F187" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G187" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K187" s="22" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L187" s="22" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="Q187" s="22" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R187" s="22" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="S187" s="34" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="T187" s="23">
         <v>133</v>
@@ -9523,33 +9606,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="188" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B188" s="22" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C188" s="22" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M188" s="22" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N188" s="22" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O188" s="22" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="P188" s="22" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="Q188" s="22" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="R188" s="22" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S188" s="34" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="T188" s="23">
         <v>146</v>
@@ -9560,43 +9643,43 @@
     </row>
     <row r="189" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="B189" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="C189" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="D189" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="E189" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="H189" s="22" t="s">
         <v>559</v>
       </c>
-      <c r="C189" s="22" t="s">
+      <c r="I189" s="22" t="s">
         <v>559</v>
       </c>
-      <c r="D189" s="22" t="s">
+      <c r="J189" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="L189" s="26" t="s">
+        <v>877</v>
+      </c>
+      <c r="M189" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="N189" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q189" s="21" t="s">
         <v>561</v>
       </c>
-      <c r="E189" s="22" t="s">
-        <v>561</v>
-      </c>
-      <c r="H189" s="22" t="s">
-        <v>560</v>
-      </c>
-      <c r="I189" s="22" t="s">
-        <v>560</v>
-      </c>
-      <c r="J189" s="22" t="s">
-        <v>560</v>
-      </c>
-      <c r="L189" s="26" t="s">
-        <v>884</v>
-      </c>
-      <c r="M189" s="22" t="s">
-        <v>561</v>
-      </c>
-      <c r="N189" s="22" t="s">
-        <v>560</v>
-      </c>
-      <c r="Q189" s="21" t="s">
-        <v>562</v>
-      </c>
       <c r="R189" s="22" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S189" s="34" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="T189" s="23">
         <v>145</v>
@@ -9607,29 +9690,29 @@
     </row>
     <row r="190" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
       <c r="D190" s="32" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E190" s="32" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F190" s="32" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G190" s="32" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H190" s="32"/>
       <c r="I190" s="32"/>
       <c r="J190" s="32"/>
       <c r="K190" s="32"/>
       <c r="L190" s="32" t="s">
+        <v>567</v>
+      </c>
+      <c r="M190" s="32" t="s">
+        <v>567</v>
+      </c>
+      <c r="S190" s="34" t="s">
         <v>568</v>
-      </c>
-      <c r="M190" s="32" t="s">
-        <v>568</v>
-      </c>
-      <c r="S190" s="34" t="s">
-        <v>569</v>
       </c>
       <c r="T190" s="23">
         <v>151</v>
@@ -9640,25 +9723,25 @@
     </row>
     <row r="191" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
       <c r="B191" s="22" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C191" s="22" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M191" s="22" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N191" s="22" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="O191" s="22" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="P191" s="22" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="S191" s="34" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="T191" s="23">
         <v>151</v>
@@ -9669,22 +9752,22 @@
     </row>
     <row r="192" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="A192" s="22" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F192" s="22" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G192" s="22" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H192" s="22" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I192" s="22" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="S192" s="34" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="T192" s="23">
         <v>154</v>
@@ -9693,21 +9776,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="193" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B193" s="22" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C193" s="22" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M193" s="22" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N193" s="22" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="S193" s="34" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="T193" s="23">
         <v>154</v>
@@ -9739,7 +9822,7 @@
         <v>138</v>
       </c>
       <c r="S194" s="34" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="T194" s="23">
         <v>156</v>
@@ -9750,28 +9833,28 @@
     </row>
     <row r="195" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
       <c r="A195" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="F195" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="G195" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="H195" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="I195" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q195" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="R195" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="S195" s="34" t="s">
         <v>577</v>
-      </c>
-      <c r="F195" s="32" t="s">
-        <v>577</v>
-      </c>
-      <c r="G195" s="32" t="s">
-        <v>577</v>
-      </c>
-      <c r="H195" s="32" t="s">
-        <v>577</v>
-      </c>
-      <c r="I195" s="32" t="s">
-        <v>577</v>
-      </c>
-      <c r="Q195" s="32" t="s">
-        <v>577</v>
-      </c>
-      <c r="R195" s="32" t="s">
-        <v>577</v>
-      </c>
-      <c r="S195" s="34" t="s">
-        <v>578</v>
       </c>
       <c r="T195" s="23">
         <v>157</v>
@@ -9782,61 +9865,61 @@
     </row>
     <row r="196" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
       <c r="A196" s="22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B196" s="22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C196" s="22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D196" s="22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E196" s="22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F196" s="22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G196" s="22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H196" s="22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I196" s="22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J196" s="22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K196" s="22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L196" s="22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M196" s="22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="N196" s="22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="O196" s="22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P196" s="22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="Q196" s="22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="R196" s="22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="S196" s="34" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="T196" s="23">
         <v>157</v>
@@ -9847,13 +9930,13 @@
     </row>
     <row r="197" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="M197" s="21" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N197" s="26" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="S197" s="34" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="T197" s="23">
         <v>160</v>
@@ -9862,48 +9945,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="198" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A198" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B198" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C198" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D198" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E198" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F198" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G198" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H198" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I198" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K198" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L198" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="Q198" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="R198" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="S198" s="34" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="T198" s="23">
         <v>161</v>
@@ -9914,10 +9997,10 @@
     </row>
     <row r="199" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="L199" s="22" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="S199" s="34" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="T199" s="23">
         <v>168</v>
@@ -9928,43 +10011,43 @@
     </row>
     <row r="200" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="A200" s="22" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B200" s="22" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C200" s="22" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F200" s="22" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G200" s="22" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L200" s="26" t="s">
+        <v>586</v>
+      </c>
+      <c r="M200" s="22" t="s">
         <v>587</v>
       </c>
-      <c r="M200" s="22" t="s">
-        <v>588</v>
-      </c>
       <c r="N200" s="22" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O200" s="22" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P200" s="22" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Q200" s="22" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="R200" s="22" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="S200" s="34" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="T200" s="23">
         <v>169</v>
@@ -9975,13 +10058,13 @@
     </row>
     <row r="201" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="K201" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="L201" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="S201" s="34" t="s">
         <v>585</v>
-      </c>
-      <c r="L201" s="22" t="s">
-        <v>585</v>
-      </c>
-      <c r="S201" s="34" t="s">
-        <v>586</v>
       </c>
       <c r="T201" s="23">
         <v>169</v>
@@ -9992,13 +10075,13 @@
     </row>
     <row r="202" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="F202" s="22" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G202" s="22" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="S202" s="34" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="T202" s="23">
         <v>171</v>
@@ -10009,40 +10092,40 @@
     </row>
     <row r="203" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="A203" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B203" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C203" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H203" s="21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I203" s="22" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M203" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="N203" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="O203" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="P203" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="Q203" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="R203" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="S203" s="34" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="T203" s="23">
         <v>178</v>
@@ -10053,40 +10136,40 @@
     </row>
     <row r="204" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="A204" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B204" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C204" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H204" s="21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I204" s="22" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M204" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="N204" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="O204" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="P204" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="Q204" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="R204" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="S204" s="34" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="T204" s="23">
         <v>180</v>
@@ -10097,28 +10180,28 @@
     </row>
     <row r="205" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="A205" s="22" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B205" s="22" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C205" s="22" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F205" s="22" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G205" s="22" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H205" s="22" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I205" s="22" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="S205" s="34" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="T205" s="23">
         <v>179</v>
@@ -10147,7 +10230,7 @@
         <v>138</v>
       </c>
       <c r="S206" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="T206" s="23">
         <v>180</v>
@@ -10158,25 +10241,25 @@
     </row>
     <row r="207" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="B207" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="C207" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="D207" s="22" t="s">
         <v>602</v>
       </c>
-      <c r="C207" s="22" t="s">
+      <c r="E207" s="22" t="s">
         <v>602</v>
       </c>
-      <c r="D207" s="22" t="s">
-        <v>603</v>
-      </c>
-      <c r="E207" s="22" t="s">
-        <v>603</v>
-      </c>
       <c r="M207" s="22" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N207" s="22" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="S207" s="34" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="T207" s="23">
         <v>175</v>
@@ -10187,10 +10270,10 @@
     </row>
     <row r="208" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="I208" s="22" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="S208" s="34" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="T208" s="23">
         <v>181</v>
@@ -10201,10 +10284,10 @@
     </row>
     <row r="209" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="I209" s="22" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="S209" s="34" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="T209" s="23">
         <v>181</v>
@@ -10215,10 +10298,10 @@
     </row>
     <row r="210" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="I210" s="22" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="S210" s="34" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="T210" s="23">
         <v>181</v>
@@ -10229,13 +10312,13 @@
     </row>
     <row r="211" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="K211" s="22" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L211" s="22" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="S211" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="T211" s="23">
         <v>184</v>
@@ -10246,10 +10329,10 @@
     </row>
     <row r="212" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="L212" s="22" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="S212" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="T212" s="23">
         <v>184</v>
@@ -10260,22 +10343,22 @@
     </row>
     <row r="213" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="J213" s="34" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="M213" s="34" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N213" s="34" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="O213" s="34" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P213" s="34" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="S213" s="34" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="T213" s="23">
         <v>187</v>
@@ -10286,22 +10369,22 @@
     </row>
     <row r="214" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="J214" s="22" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M214" s="22" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N214" s="22" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O214" s="22" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="P214" s="22" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="S214" s="34" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="T214" s="23">
         <v>187</v>
@@ -10312,52 +10395,52 @@
     </row>
     <row r="215" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
       <c r="A215" s="22" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B215" s="22" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C215" s="22" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D215" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="E215" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="F215" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="G215" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="K215" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="L215" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="M215" s="22" t="s">
         <v>596</v>
       </c>
-      <c r="E215" s="22" t="s">
+      <c r="N215" s="22" t="s">
         <v>596</v>
       </c>
-      <c r="F215" s="22" t="s">
-        <v>618</v>
-      </c>
-      <c r="G215" s="22" t="s">
-        <v>618</v>
-      </c>
-      <c r="K215" s="22" t="s">
+      <c r="O215" s="22" t="s">
         <v>596</v>
       </c>
-      <c r="L215" s="22" t="s">
+      <c r="P215" s="22" t="s">
         <v>596</v>
       </c>
-      <c r="M215" s="22" t="s">
-        <v>597</v>
-      </c>
-      <c r="N215" s="22" t="s">
-        <v>597</v>
-      </c>
-      <c r="O215" s="22" t="s">
-        <v>597</v>
-      </c>
-      <c r="P215" s="22" t="s">
-        <v>597</v>
-      </c>
       <c r="Q215" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="R215" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="S215" s="34" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="T215" s="23">
         <v>188</v>
@@ -10368,40 +10451,40 @@
     </row>
     <row r="216" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
       <c r="A216" s="22" t="s">
+        <v>615</v>
+      </c>
+      <c r="B216" s="22" t="s">
+        <v>615</v>
+      </c>
+      <c r="C216" s="22" t="s">
+        <v>615</v>
+      </c>
+      <c r="F216" s="22" t="s">
+        <v>615</v>
+      </c>
+      <c r="G216" s="22" t="s">
+        <v>615</v>
+      </c>
+      <c r="M216" s="22" t="s">
         <v>616</v>
       </c>
-      <c r="B216" s="22" t="s">
+      <c r="N216" s="22" t="s">
         <v>616</v>
       </c>
-      <c r="C216" s="22" t="s">
+      <c r="O216" s="22" t="s">
         <v>616</v>
       </c>
-      <c r="F216" s="22" t="s">
+      <c r="P216" s="22" t="s">
         <v>616</v>
       </c>
-      <c r="G216" s="22" t="s">
-        <v>616</v>
-      </c>
-      <c r="M216" s="22" t="s">
-        <v>617</v>
-      </c>
-      <c r="N216" s="22" t="s">
-        <v>617</v>
-      </c>
-      <c r="O216" s="22" t="s">
-        <v>617</v>
-      </c>
-      <c r="P216" s="22" t="s">
-        <v>617</v>
-      </c>
       <c r="Q216" s="22" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="R216" s="22" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="S216" s="34" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="T216" s="23">
         <v>188</v>
@@ -10412,34 +10495,34 @@
     </row>
     <row r="217" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
       <c r="A217" s="34" t="s">
+        <v>619</v>
+      </c>
+      <c r="F217" s="34" t="s">
+        <v>619</v>
+      </c>
+      <c r="G217" s="34" t="s">
+        <v>619</v>
+      </c>
+      <c r="H217" s="34" t="s">
+        <v>619</v>
+      </c>
+      <c r="I217" s="34" t="s">
+        <v>619</v>
+      </c>
+      <c r="K217" s="22" t="s">
         <v>620</v>
       </c>
-      <c r="F217" s="34" t="s">
+      <c r="L217" s="22" t="s">
         <v>620</v>
       </c>
-      <c r="G217" s="34" t="s">
+      <c r="O217" s="22" t="s">
         <v>620</v>
       </c>
-      <c r="H217" s="34" t="s">
+      <c r="P217" s="22" t="s">
         <v>620</v>
       </c>
-      <c r="I217" s="34" t="s">
-        <v>620</v>
-      </c>
-      <c r="K217" s="22" t="s">
-        <v>621</v>
-      </c>
-      <c r="L217" s="22" t="s">
-        <v>621</v>
-      </c>
-      <c r="O217" s="22" t="s">
-        <v>621</v>
-      </c>
-      <c r="P217" s="22" t="s">
-        <v>621</v>
-      </c>
       <c r="S217" s="34" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="T217" s="23">
         <v>195</v>
@@ -10448,12 +10531,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="218" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="C218" s="22" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="S218" s="34" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="T218" s="23">
         <v>196</v>
@@ -10464,13 +10547,13 @@
     </row>
     <row r="219" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="D219" s="22" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E219" s="22" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="S219" s="34" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="T219" s="23">
         <v>198</v>
@@ -10481,43 +10564,43 @@
     </row>
     <row r="220" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="B220" s="22" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C220" s="22" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D220" s="22" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E220" s="22" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K220" s="22" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L220" s="22" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M220" s="22" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="N220" s="22" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="O220" s="22" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P220" s="22" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="Q220" s="22" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="R220" s="22" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="S220" s="34" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T220" s="23">
         <v>1</v>
@@ -10528,13 +10611,13 @@
     </row>
     <row r="221" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="H221" s="22" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I221" s="22" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="S221" s="34" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T221" s="23">
         <v>1</v>
@@ -10545,16 +10628,16 @@
     </row>
     <row r="222" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="D222" s="22" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E222" s="22" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="R222" s="22" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="S222" s="34" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="T222" s="23">
         <v>3</v>
@@ -10565,19 +10648,19 @@
     </row>
     <row r="223" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="K223" s="22" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L223" s="22" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="Q223" s="22" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="R223" s="22" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="S223" s="34" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="T223" s="23">
         <v>5</v>
@@ -10588,13 +10671,13 @@
     </row>
     <row r="224" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
       <c r="K224" s="22" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L224" s="22" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="S224" s="34" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="T224" s="23">
         <v>10</v>
@@ -10603,21 +10686,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="225" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="D225" s="22" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E225" s="22" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="Q225" s="22" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="R225" s="22" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="S225" s="34" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="T225" s="23">
         <v>11</v>
@@ -10628,19 +10711,19 @@
     </row>
     <row r="226" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="F226" s="22" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G226" s="22" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H226" s="22" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I226" s="22" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="S226" s="34" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T226" s="23">
         <v>11</v>
@@ -10653,22 +10736,22 @@
       <c r="F227" s="22"/>
       <c r="H227" s="22"/>
       <c r="J227" s="22" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="K227" s="22" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L227" s="22" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="O227" s="22" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="P227" s="22" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="S227" s="34" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="T227" s="23">
         <v>11</v>
@@ -10679,10 +10762,10 @@
     </row>
     <row r="228" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="H228" s="21" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="S228" s="34" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="T228" s="23">
         <v>9</v>
@@ -10693,46 +10776,46 @@
     </row>
     <row r="229" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="A229" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B229" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C229" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D229" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E229" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F229" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G229" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H229" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I229" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="M229" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="N229" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="Q229" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="R229" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="S229" s="34" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="T229" s="23">
         <v>12</v>
@@ -10743,25 +10826,25 @@
     </row>
     <row r="230" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="D230" s="22" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E230" s="22" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="K230" s="22" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L230" s="22" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="Q230" s="22" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="R230" s="22" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="S230" s="34" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="T230" s="23">
         <v>13</v>
@@ -10772,25 +10855,25 @@
     </row>
     <row r="231" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="D231" s="22" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E231" s="22" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="K231" s="22" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L231" s="22" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="Q231" s="22" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="R231" s="22" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="S231" s="34" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="T231" s="23">
         <v>14</v>
@@ -10799,15 +10882,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="232" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="O232" s="22" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="P232" s="22" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="S232" s="34" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="T232" s="23">
         <v>16</v>
@@ -10818,22 +10901,22 @@
     </row>
     <row r="233" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="A233" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F233" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G233" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H233" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I233" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S233" s="34" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="T233" s="23">
         <v>19</v>
@@ -10844,16 +10927,16 @@
     </row>
     <row r="234" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
       <c r="J234" s="22" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="O234" s="22" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="P234" s="22" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="S234" s="34" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="T234" s="23">
         <v>19</v>
@@ -10865,7 +10948,7 @@
     <row r="235" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="O235" s="19"/>
       <c r="S235" s="34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="T235" s="23">
         <v>24</v>
@@ -10876,40 +10959,40 @@
     </row>
     <row r="236" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="B236" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C236" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J236" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K236" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L236" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M236" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="N236" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O236" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P236" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="Q236" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="R236" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="S236" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="T236" s="23">
         <v>24</v>
@@ -10920,13 +11003,13 @@
     </row>
     <row r="237" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="F237" s="22" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G237" s="22" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="S237" s="34" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="T237" s="23">
         <v>25</v>
@@ -10937,13 +11020,13 @@
     </row>
     <row r="238" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="F238" s="22" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G238" s="22" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="S238" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="T238" s="23">
         <v>25</v>
@@ -10954,25 +11037,25 @@
     </row>
     <row r="239" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="A239" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F239" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G239" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H239" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I239" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J239" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="S239" s="34" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="T239" s="23">
         <v>25</v>
@@ -10983,13 +11066,13 @@
     </row>
     <row r="240" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="F240" s="22" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G240" s="22" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="S240" s="34" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="T240" s="23">
         <v>25</v>
@@ -10998,45 +11081,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="241" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B241" s="22" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C241" s="22" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D241" s="22" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E241" s="22" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="K241" s="22" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="L241" s="22" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M241" s="22" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="N241" s="22" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="O241" s="22" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="P241" s="22" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q241" s="22" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="R241" s="22" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="S241" s="34" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="T241" s="23">
         <v>29</v>
@@ -11047,19 +11130,19 @@
     </row>
     <row r="242" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="D242" s="22" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E242" s="22" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q242" s="22" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="R242" s="22" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="S242" s="34" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="T242" s="23">
         <v>31</v>
@@ -11068,24 +11151,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="243" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A243" s="22" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F243" s="22" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G243" s="22" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="O243" s="22" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="P243" s="22" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="S243" s="34" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="T243" s="23">
         <v>32</v>
@@ -11096,43 +11179,43 @@
     </row>
     <row r="244" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="B244" s="22" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C244" s="22" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D244" s="22" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E244" s="22" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K244" s="22" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="L244" s="22" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="M244" s="22" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="N244" s="22" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="O244" s="22" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="P244" s="22" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="Q244" s="22" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="R244" s="22" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="S244" s="34" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="T244" s="23">
         <v>33</v>
@@ -11143,13 +11226,13 @@
     </row>
     <row r="245" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="D245" s="22" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E245" s="22" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="S245" s="34" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="T245" s="23">
         <v>34</v>
@@ -11158,24 +11241,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="246" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A246" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F246" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G246" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H246" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I246" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="S246" s="34" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="T246" s="23">
         <v>37</v>
@@ -11186,16 +11269,16 @@
     </row>
     <row r="247" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="F247" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G247" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q247" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S247" s="34" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="T247" s="23">
         <v>36</v>
@@ -11206,13 +11289,13 @@
     </row>
     <row r="248" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="C248" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="M248" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="S248" s="34" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="T248" s="23">
         <v>36</v>
@@ -11221,27 +11304,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="249" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="D249" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E249" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O249" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="P249" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Q249" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="R249" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="S249" s="34" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="T249" s="23">
         <v>40</v>
@@ -11250,33 +11333,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="250" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B250" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C250" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D250" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E250" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K250" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L250" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="O250" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="P250" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="S250" s="34" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="T250" s="23">
         <v>40</v>
@@ -11287,40 +11370,40 @@
     </row>
     <row r="251" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="A251" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D251" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="E251" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="F251" s="22" t="s">
         <v>688</v>
       </c>
-      <c r="E251" s="22" t="s">
+      <c r="G251" s="22" t="s">
         <v>688</v>
       </c>
-      <c r="F251" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="G251" s="22" t="s">
-        <v>689</v>
-      </c>
       <c r="H251" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I251" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K251" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L251" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Q251" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="R251" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="S251" s="34" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="T251" s="23">
         <v>42</v>
@@ -11331,22 +11414,22 @@
     </row>
     <row r="252" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="A252" s="22" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F252" s="22" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G252" s="22" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H252" s="22" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I252" s="22" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="S252" s="34" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T252" s="23">
         <v>43</v>
@@ -11359,15 +11442,15 @@
       <c r="D253" s="22"/>
       <c r="F253" s="22"/>
       <c r="M253" s="22" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N253" s="25" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="O253" s="22"/>
       <c r="Q253" s="22"/>
       <c r="S253" s="34" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="T253" s="23">
         <v>58</v>
@@ -11378,46 +11461,46 @@
     </row>
     <row r="254" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="A254" s="22" t="s">
+        <v>697</v>
+      </c>
+      <c r="D254" s="22" t="s">
         <v>698</v>
       </c>
-      <c r="D254" s="22" t="s">
-        <v>699</v>
-      </c>
       <c r="E254" s="22" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F254" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G254" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H254" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I254" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J254" s="26" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="K254" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="L254" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M254" s="26" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="N254" s="26" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="R254" s="26" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="S254" s="34" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="T254" s="23">
         <v>58</v>
@@ -11428,40 +11511,40 @@
     </row>
     <row r="255" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="A255" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D255" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E255" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F255" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G255" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K255" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L255" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="O255" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P255" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="Q255" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="R255" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="S255" s="34" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="T255" s="23">
         <v>66</v>
@@ -11472,52 +11555,52 @@
     </row>
     <row r="256" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="A256" s="22" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B256" s="22" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C256" s="22" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D256" s="22" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E256" s="22" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F256" s="22" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G256" s="22" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="K256" s="22" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="L256" s="22" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="M256" s="22" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N256" s="22" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="O256" s="22" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="P256" s="22" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Q256" s="22" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="R256" s="22" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="S256" s="34" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="T256" s="23">
         <v>66</v>
@@ -11526,15 +11609,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="257" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="K257" s="22" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="L257" s="22" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="S257" s="34" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="T257" s="23">
         <v>66</v>
@@ -11545,52 +11628,52 @@
     </row>
     <row r="258" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="A258" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B258" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D258" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E258" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F258" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G258" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H258" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I258" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J258" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K258" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L258" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="M258" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N258" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="Q258" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="R258" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="S258" s="34" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="T258" s="23">
         <v>73</v>
@@ -11601,37 +11684,37 @@
     </row>
     <row r="259" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="A259" s="22" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B259" s="22" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D259" s="22" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E259" s="22" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F259" s="22" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G259" s="22" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H259" s="22" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I259" s="22" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="O259" s="22" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="P259" s="22" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="S259" s="34" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="T259" s="23">
         <v>77</v>
@@ -11640,18 +11723,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="260" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="H260" s="22" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I260" s="22" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N260" s="22" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="S260" s="34" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="T260" s="23">
         <v>81</v>
@@ -11660,27 +11743,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="261" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A261" s="22" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C261" s="22" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F261" s="22" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G261" s="22" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H261" s="22" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I261" s="22" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="S261" s="34" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="T261" s="23">
         <v>87</v>
@@ -11691,13 +11774,13 @@
     </row>
     <row r="262" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="B262" s="22" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C262" s="22" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="S262" s="34" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="T262" s="23">
         <v>90</v>
@@ -11708,22 +11791,22 @@
     </row>
     <row r="263" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="A263" s="22" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F263" s="22" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G263" s="22" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H263" s="22" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I263" s="22" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="S263" s="34" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="T263" s="23">
         <v>94</v>
@@ -11734,34 +11817,34 @@
     </row>
     <row r="264" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="A264" s="22" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D264" s="22" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E264" s="22" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H264" s="22" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I264" s="22" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K264" s="22" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="L264" s="22" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="Q264" s="22" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="R264" s="22" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="S264" s="34" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="T264" s="23">
         <v>94</v>
@@ -11772,10 +11855,10 @@
     </row>
     <row r="265" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="E265" s="22" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="S265" s="34" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="T265" s="23">
         <v>94</v>
@@ -11786,35 +11869,35 @@
     </row>
     <row r="266" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="A266" s="22" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D266" s="22" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E266" s="22" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F266" s="22" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G266" s="22" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="K266" s="22" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="L266" s="22" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="O266" s="22"/>
       <c r="Q266" s="22" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="R266" s="22" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="S266" s="34" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="T266" s="23">
         <v>95</v>
@@ -11828,7 +11911,7 @@
         <v>82</v>
       </c>
       <c r="S267" s="34" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="T267" s="23">
         <v>102</v>
@@ -11839,22 +11922,22 @@
     </row>
     <row r="268" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="A268" s="22" t="s">
+        <v>723</v>
+      </c>
+      <c r="H268" s="22" t="s">
+        <v>723</v>
+      </c>
+      <c r="I268" s="22" t="s">
+        <v>723</v>
+      </c>
+      <c r="M268" s="21" t="s">
         <v>724</v>
       </c>
-      <c r="H268" s="22" t="s">
-        <v>724</v>
-      </c>
-      <c r="I268" s="22" t="s">
-        <v>724</v>
-      </c>
-      <c r="M268" s="21" t="s">
-        <v>725</v>
-      </c>
       <c r="N268" s="22" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="S268" s="34" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="T268" s="23">
         <v>114</v>
@@ -11865,13 +11948,13 @@
     </row>
     <row r="269" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="F269" s="22" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G269" s="22" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="S269" s="34" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="T269" s="23">
         <v>114</v>
@@ -11882,40 +11965,40 @@
     </row>
     <row r="270" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="B270" s="22" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C270" s="22" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D270" s="22" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E270" s="22" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H270" s="22" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I270" s="22" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J270" s="22" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="L270" s="26" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="M270" s="22" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="N270" s="22" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="R270" s="22" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="S270" s="34" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="T270" s="23">
         <v>115</v>
@@ -11926,40 +12009,40 @@
     </row>
     <row r="271" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="B271" s="22" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C271" s="22" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D271" s="22" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E271" s="22" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H271" s="22" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I271" s="22" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J271" s="22" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L271" s="26" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="M271" s="22" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="N271" s="22" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="R271" s="22" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="S271" s="34" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="T271" s="23">
         <v>115</v>
@@ -11968,27 +12051,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="272" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A272" s="22" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C272" s="22" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F272" s="22" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G272" s="22" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H272" s="22" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I272" s="22" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="S272" s="34" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="T272" s="23">
         <v>122</v>
@@ -11997,15 +12080,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="273" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="D273" s="22" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E273" s="22" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="S273" s="34" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="T273" s="23">
         <v>123</v>
@@ -12014,15 +12097,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="274" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="D274" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E274" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="S274" s="34" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="T274" s="23">
         <v>123</v>
@@ -12033,31 +12116,31 @@
     </row>
     <row r="275" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
       <c r="B275" s="22" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D275" s="22" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E275" s="22" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J275" s="22" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="M275" s="22" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="N275" s="22" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="O275" s="22" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="P275" s="22" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="S275" s="34" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="T275" s="23">
         <v>124</v>
@@ -12066,12 +12149,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="276" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="L276" s="22" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="S276" s="34" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="T276" s="23">
         <v>125</v>
@@ -12082,46 +12165,46 @@
     </row>
     <row r="277" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
       <c r="B277" s="22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C277" s="22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D277" s="22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E277" s="22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J277" s="22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K277" s="22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="L277" s="22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="M277" s="22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="N277" s="22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="O277" s="22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="P277" s="22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="Q277" s="22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R277" s="22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="S277" s="34" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="T277" s="23">
         <v>128</v>
@@ -12132,19 +12215,19 @@
     </row>
     <row r="278" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="H278" s="22" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I278" s="22" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K278" s="22" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="L278" s="22" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="S278" s="34" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="T278" s="23">
         <v>135</v>
@@ -12155,25 +12238,25 @@
     </row>
     <row r="279" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
       <c r="K279" s="22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L279" s="22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="M279" s="22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="N279" s="22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="O279" s="22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="P279" s="22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="S279" s="34" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="T279" s="23">
         <v>136</v>
@@ -12184,25 +12267,25 @@
     </row>
     <row r="280" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
       <c r="K280" s="22" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="L280" s="22" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="M280" s="22" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="N280" s="22" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="O280" s="22" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="P280" s="22" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="S280" s="34" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="T280" s="23">
         <v>136</v>
@@ -12213,52 +12296,52 @@
     </row>
     <row r="281" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
       <c r="A281" s="22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D281" s="22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E281" s="22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F281" s="22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G281" s="22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H281" s="22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I281" s="22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K281" s="22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L281" s="22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="M281" s="22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="N281" s="22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="O281" s="22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="P281" s="22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="Q281" s="22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="R281" s="22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="S281" s="34" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="T281" s="23">
         <v>140</v>
@@ -12269,43 +12352,43 @@
     </row>
     <row r="282" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="B282" s="22" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C282" s="22" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D282" s="22" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E282" s="22" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K282" s="22" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="L282" s="22" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="M282" s="22" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="N282" s="22" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="O282" s="22" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P282" s="22" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="Q282" s="22" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="R282" s="22" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="S282" s="34" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="T282" s="23">
         <v>145</v>
@@ -12314,7 +12397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="283" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B283" s="22" t="s">
         <v>382</v>
       </c>
@@ -12322,7 +12405,7 @@
         <v>382</v>
       </c>
       <c r="S283" s="34" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="T283" s="23">
         <v>146</v>
@@ -12333,61 +12416,61 @@
     </row>
     <row r="284" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
       <c r="A284" s="22" t="s">
+        <v>761</v>
+      </c>
+      <c r="B284" s="22" t="s">
         <v>762</v>
       </c>
-      <c r="B284" s="22" t="s">
+      <c r="C284" s="22" t="s">
+        <v>762</v>
+      </c>
+      <c r="D284" s="22" t="s">
         <v>763</v>
       </c>
-      <c r="C284" s="22" t="s">
+      <c r="E284" s="22" t="s">
         <v>763</v>
       </c>
-      <c r="D284" s="22" t="s">
-        <v>764</v>
-      </c>
-      <c r="E284" s="22" t="s">
-        <v>764</v>
-      </c>
       <c r="F284" s="22" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G284" s="22" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H284" s="22" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I284" s="22" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J284" s="22" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K284" s="22" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="L284" s="22" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M284" s="22" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="N284" s="22" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="O284" s="22" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="P284" s="22" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="Q284" s="22" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="R284" s="22" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="S284" s="34" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="T284" s="23">
         <v>152</v>
@@ -12398,25 +12481,25 @@
     </row>
     <row r="285" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="B285" s="22" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C285" s="22" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="M285" s="22" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="N285" s="22" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="O285" s="22" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="P285" s="22" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="S285" s="34" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="T285" s="23">
         <v>153</v>
@@ -12427,26 +12510,26 @@
     </row>
     <row r="286" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="B286" s="22" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C286" s="22" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D286" s="22"/>
       <c r="M286" s="22" t="s">
+        <v>768</v>
+      </c>
+      <c r="N286" s="22" t="s">
         <v>769</v>
       </c>
-      <c r="N286" s="22" t="s">
-        <v>770</v>
-      </c>
       <c r="O286" s="22" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="P286" s="22" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="S286" s="34" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="T286" s="23">
         <v>153</v>
@@ -12457,19 +12540,19 @@
     </row>
     <row r="287" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="D287" s="22" t="s">
+        <v>772</v>
+      </c>
+      <c r="E287" s="22" t="s">
+        <v>772</v>
+      </c>
+      <c r="Q287" s="21" t="s">
+        <v>771</v>
+      </c>
+      <c r="R287" s="26" t="s">
         <v>773</v>
       </c>
-      <c r="E287" s="22" t="s">
-        <v>773</v>
-      </c>
-      <c r="Q287" s="21" t="s">
-        <v>772</v>
-      </c>
-      <c r="R287" s="26" t="s">
-        <v>774</v>
-      </c>
       <c r="S287" s="34" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="T287" s="23">
         <v>154</v>
@@ -12480,16 +12563,16 @@
     </row>
     <row r="288" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
       <c r="A288" s="22" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H288" s="22" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I288" s="22" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="S288" s="34" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="T288" s="23">
         <v>162</v>
@@ -12498,12 +12581,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="289" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="L289" s="22" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="S289" s="34" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="T289" s="23">
         <v>163</v>
@@ -12512,18 +12595,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="290" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A290" s="22" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H290" s="22" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I290" s="22" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="S290" s="34" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="T290" s="23">
         <v>163</v>
@@ -12534,22 +12617,22 @@
     </row>
     <row r="291" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="D291" s="22" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E291" s="22" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J291" s="22" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K291" s="22" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="L291" s="22" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="S291" s="34" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="T291" s="23">
         <v>2</v>
@@ -12560,19 +12643,19 @@
     </row>
     <row r="292" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="M292" s="22" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="N292" s="22" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="O292" s="22" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="P292" s="22" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="S292" s="34" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="T292" s="23">
         <v>2</v>
@@ -12581,12 +12664,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="293" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="P293" s="22" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="S293" s="34" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="T293" s="23">
         <v>2</v>
@@ -12595,7 +12678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="294" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="D294" s="22" t="s">
         <v>245</v>
       </c>
@@ -12603,7 +12686,7 @@
         <v>245</v>
       </c>
       <c r="S294" s="34" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="T294" s="23">
         <v>3</v>
@@ -12647,7 +12730,7 @@
         <v>248</v>
       </c>
       <c r="S295" s="34" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="T295" s="23">
         <v>3</v>
@@ -12658,13 +12741,13 @@
     </row>
     <row r="296" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="F296" s="22" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G296" s="22" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="S296" s="34" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="T296" s="23">
         <v>5</v>
@@ -12675,13 +12758,13 @@
     </row>
     <row r="297" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="B297" s="22" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C297" s="22" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="S297" s="34" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="T297" s="23">
         <v>3</v>
@@ -12692,37 +12775,37 @@
     </row>
     <row r="298" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="A298" s="22" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D298" s="22" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E298" s="22" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H298" s="22" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I298" s="22" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J298" s="22" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="M298" s="22" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="N298" s="22" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="O298" s="22" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="P298" s="22" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="S298" s="34" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="T298" s="23">
         <v>6</v>
@@ -12733,22 +12816,22 @@
     </row>
     <row r="299" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="A299" s="22" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F299" s="22" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G299" s="22" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H299" s="22" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I299" s="22" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="S299" s="34" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="T299" s="23">
         <v>6</v>
@@ -12759,22 +12842,22 @@
     </row>
     <row r="300" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="D300" s="22" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E300" s="22" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J300" s="22" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K300" s="22" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="L300" s="22" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="S300" s="34" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="T300" s="23">
         <v>8</v>
@@ -12785,19 +12868,19 @@
     </row>
     <row r="301" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="F301" s="22" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G301" s="22" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H301" s="22" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I301" s="22" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="S301" s="34" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="T301" s="23">
         <v>13</v>
@@ -12808,31 +12891,31 @@
     </row>
     <row r="302" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
       <c r="B302" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C302" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F302" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G302" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M302" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="N302" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O302" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P302" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="S302" s="34" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="T302" s="23">
         <v>11</v>
@@ -12843,7 +12926,7 @@
     </row>
     <row r="303" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="S303" s="34" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T303" s="23">
         <v>16</v>
@@ -12854,43 +12937,43 @@
     </row>
     <row r="304" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="A304" s="22" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B304" s="22" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C304" s="22" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F304" s="22" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G304" s="22" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H304" s="22" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I304" s="22" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J304" s="22" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="K304" s="22" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="L304" s="22" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="O304" s="22" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="P304" s="22" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="S304" s="34" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="T304" s="23">
         <v>28</v>
@@ -12899,15 +12982,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="305" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="D305" s="22" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E305" s="22" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="S305" s="34" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="T305" s="23">
         <v>32</v>
@@ -12916,15 +12999,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="306" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="M306" s="22" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="N306" s="22" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="S306" s="34" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="T306" s="23">
         <v>32</v>
@@ -12935,13 +13018,13 @@
     </row>
     <row r="307" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="Q307" s="22" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="R307" s="22" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="S307" s="34" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="T307" s="23">
         <v>41</v>
@@ -12950,39 +13033,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="308" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B308" s="22" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C308" s="22" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D308" s="22" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E308" s="22" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F308" s="22" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G308" s="22" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="M308" s="22" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N308" s="22" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="O308" s="22" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="P308" s="22" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="S308" s="34" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="T308" s="23">
         <v>42</v>
@@ -12993,10 +13076,10 @@
     </row>
     <row r="309" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="G309" s="22" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="S309" s="34" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="T309" s="23">
         <v>45</v>
@@ -13005,12 +13088,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="310" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="G310" s="22" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="S310" s="34" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="T310" s="23">
         <v>45</v>
@@ -13019,18 +13102,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="311" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="G311" s="22" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q311" s="22" t="s">
         <v>819</v>
       </c>
-      <c r="Q311" s="22" t="s">
-        <v>820</v>
-      </c>
       <c r="R311" s="22" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="S311" s="34" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="T311" s="23">
         <v>45</v>
@@ -13039,12 +13122,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="312" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="G312" s="22" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="S312" s="34" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="T312" s="23">
         <v>45</v>
@@ -13053,36 +13136,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="313" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="D313" s="22" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E313" s="22" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G313" s="22" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="K313" s="22" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="L313" s="22" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="M313" s="22" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="N313" s="22" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="O313" s="22" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="P313" s="22" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="S313" s="34" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="T313" s="23">
         <v>45</v>
@@ -13093,25 +13176,25 @@
     </row>
     <row r="314" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="B314" s="22" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C314" s="22" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D314" s="22" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E314" s="22" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="M314" s="22" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="N314" s="22" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="S314" s="34" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="T314" s="23">
         <v>44</v>
@@ -13120,15 +13203,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="315" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="H315" s="22" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I315" s="22" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="S315" s="34" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="T315" s="23">
         <v>47</v>
@@ -13139,40 +13222,40 @@
     </row>
     <row r="316" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="A316" s="22" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D316" s="22" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E316" s="22" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F316" s="22" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G316" s="22" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K316" s="22" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="L316" s="22" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="O316" s="22" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="P316" s="22" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="Q316" s="22" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="R316" s="22" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="S316" s="34" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="T316" s="23">
         <v>49</v>
@@ -13189,7 +13272,7 @@
         <v>508</v>
       </c>
       <c r="S317" s="34" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="T317" s="23">
         <v>50</v>
@@ -13200,10 +13283,10 @@
     </row>
     <row r="318" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
       <c r="B318" s="22" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C318" s="22" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D318" s="22" t="s">
         <v>302</v>
@@ -13218,10 +13301,10 @@
         <v>302</v>
       </c>
       <c r="M318" s="22" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="N318" s="22" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="O318" s="22" t="s">
         <v>302</v>
@@ -13236,7 +13319,7 @@
         <v>302</v>
       </c>
       <c r="S318" s="34" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="T318" s="23">
         <v>53</v>
@@ -13247,25 +13330,25 @@
     </row>
     <row r="319" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
       <c r="D319" s="22" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E319" s="22" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K319" s="22" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L319" s="22" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="Q319" s="22" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R319" s="22" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="S319" s="34" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="T319" s="23">
         <v>54</v>
@@ -13276,25 +13359,25 @@
     </row>
     <row r="320" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="B320" s="22" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C320" s="22" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F320" s="22" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G320" s="22" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="M320" s="22" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="N320" s="22" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="S320" s="34" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="T320" s="23">
         <v>57</v>
@@ -13305,13 +13388,13 @@
     </row>
     <row r="321" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="H321" s="22" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I321" s="22" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="S321" s="34" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="T321" s="23">
         <v>60</v>
@@ -13322,37 +13405,37 @@
     </row>
     <row r="322" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="B322" s="22" t="s">
+        <v>835</v>
+      </c>
+      <c r="C322" s="22" t="s">
+        <v>835</v>
+      </c>
+      <c r="D322" s="22" t="s">
+        <v>835</v>
+      </c>
+      <c r="E322" s="22" t="s">
+        <v>835</v>
+      </c>
+      <c r="F322" s="22" t="s">
+        <v>835</v>
+      </c>
+      <c r="G322" s="22" t="s">
+        <v>835</v>
+      </c>
+      <c r="M322" s="22" t="s">
+        <v>835</v>
+      </c>
+      <c r="N322" s="22" t="s">
+        <v>835</v>
+      </c>
+      <c r="O322" s="22" t="s">
+        <v>835</v>
+      </c>
+      <c r="P322" s="22" t="s">
+        <v>835</v>
+      </c>
+      <c r="S322" s="34" t="s">
         <v>836</v>
-      </c>
-      <c r="C322" s="22" t="s">
-        <v>836</v>
-      </c>
-      <c r="D322" s="22" t="s">
-        <v>836</v>
-      </c>
-      <c r="E322" s="22" t="s">
-        <v>836</v>
-      </c>
-      <c r="F322" s="22" t="s">
-        <v>836</v>
-      </c>
-      <c r="G322" s="22" t="s">
-        <v>836</v>
-      </c>
-      <c r="M322" s="22" t="s">
-        <v>836</v>
-      </c>
-      <c r="N322" s="22" t="s">
-        <v>836</v>
-      </c>
-      <c r="O322" s="22" t="s">
-        <v>836</v>
-      </c>
-      <c r="P322" s="22" t="s">
-        <v>836</v>
-      </c>
-      <c r="S322" s="34" t="s">
-        <v>837</v>
       </c>
       <c r="T322" s="23">
         <v>62</v>
@@ -13361,36 +13444,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="323" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="B323" s="22" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C323" s="22" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D323" s="22" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E323" s="22" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J323" s="22" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K323" s="22" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="L323" s="22" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="Q323" s="22" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="R323" s="22" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="S323" s="34" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="T323" s="23">
         <v>67</v>
@@ -13407,7 +13490,7 @@
         <v>106</v>
       </c>
       <c r="S324" s="34" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="T324" s="23">
         <v>69</v>
@@ -13418,34 +13501,34 @@
     </row>
     <row r="325" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="A325" s="22" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B325" s="22" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C325" s="22" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F325" s="22" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G325" s="22" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H325" s="22" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I325" s="22" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="M325" s="22" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="N325" s="22" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="S325" s="34" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="T325" s="23">
         <v>71</v>
@@ -13456,28 +13539,28 @@
     </row>
     <row r="326" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="A326" s="22" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F326" s="22" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G326" s="22" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H326" s="22" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I326" s="22" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J326" s="22" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="K326" s="21" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="S326" s="34" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="T326" s="23">
         <v>79</v>
@@ -13488,37 +13571,37 @@
     </row>
     <row r="327" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="D327" s="22" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E327" s="22" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K327" s="22" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="L327" s="22" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="M327" s="22" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="N327" s="22" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="O327" s="22" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="P327" s="22" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="Q327" s="22" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="R327" s="22" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="S327" s="34" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="T327" s="23">
         <v>95</v>
@@ -13527,27 +13610,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="328" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="D328" s="22" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E328" s="22" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="K328" s="22" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="L328" s="22" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="Q328" s="22" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="R328" s="22" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="S328" s="34" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="T328" s="23">
         <v>95</v>
@@ -13559,14 +13642,14 @@
     <row r="329" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="D329" s="22"/>
       <c r="K329" s="22" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L329" s="22" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="Q329" s="22"/>
       <c r="S329" s="34" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="T329" s="23">
         <v>97</v>
@@ -13577,19 +13660,19 @@
     </row>
     <row r="330" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="M330" s="22" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="N330" s="22" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O330" s="22" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="P330" s="22" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="S330" s="34" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="T330" s="23">
         <v>101</v>
@@ -13600,61 +13683,61 @@
     </row>
     <row r="331" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="A331" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="B331" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="C331" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="D331" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="E331" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="F331" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="G331" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="H331" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="I331" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="J331" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="K331" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="L331" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="M331" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="N331" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="O331" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="P331" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="Q331" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="R331" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="S331" s="34" t="s">
         <v>853</v>
-      </c>
-      <c r="B331" s="22" t="s">
-        <v>853</v>
-      </c>
-      <c r="C331" s="22" t="s">
-        <v>853</v>
-      </c>
-      <c r="D331" s="22" t="s">
-        <v>853</v>
-      </c>
-      <c r="E331" s="22" t="s">
-        <v>853</v>
-      </c>
-      <c r="F331" s="22" t="s">
-        <v>853</v>
-      </c>
-      <c r="G331" s="22" t="s">
-        <v>853</v>
-      </c>
-      <c r="H331" s="22" t="s">
-        <v>853</v>
-      </c>
-      <c r="I331" s="22" t="s">
-        <v>853</v>
-      </c>
-      <c r="J331" s="22" t="s">
-        <v>853</v>
-      </c>
-      <c r="K331" s="22" t="s">
-        <v>853</v>
-      </c>
-      <c r="L331" s="22" t="s">
-        <v>853</v>
-      </c>
-      <c r="M331" s="22" t="s">
-        <v>853</v>
-      </c>
-      <c r="N331" s="22" t="s">
-        <v>853</v>
-      </c>
-      <c r="O331" s="22" t="s">
-        <v>853</v>
-      </c>
-      <c r="P331" s="22" t="s">
-        <v>853</v>
-      </c>
-      <c r="Q331" s="22" t="s">
-        <v>853</v>
-      </c>
-      <c r="R331" s="22" t="s">
-        <v>853</v>
-      </c>
-      <c r="S331" s="34" t="s">
-        <v>854</v>
       </c>
       <c r="T331" s="23">
         <v>107</v>
@@ -13665,25 +13748,25 @@
     </row>
     <row r="332" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="A332" s="22" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B332" s="22" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C332" s="22" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H332" s="22" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I332" s="22" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J332" s="22" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="S332" s="34" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="T332" s="23">
         <v>107</v>
@@ -13692,18 +13775,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="333" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="H333" s="22" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="I333" s="22" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="J333" s="22" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="S333" s="34" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="T333" s="23">
         <v>109</v>
@@ -13712,15 +13795,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="334" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="O334" s="22" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="P334" s="22" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="S334" s="34" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="T334" s="23">
         <v>110</v>
@@ -13731,13 +13814,13 @@
     </row>
     <row r="335" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="D335" s="22" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E335" s="22" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="S335" s="34" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="T335" s="23">
         <v>110</v>
@@ -13748,25 +13831,25 @@
     </row>
     <row r="336" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="B336" s="22" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C336" s="22" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D336" s="22" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E336" s="22" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="Q336" s="22" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="R336" s="22" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="S336" s="34" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="T336" s="23">
         <v>110</v>
@@ -13777,22 +13860,22 @@
     </row>
     <row r="337" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="A337" s="22" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F337" s="22" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G337" s="22" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H337" s="22" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="I337" s="22" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="S337" s="34" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="T337" s="23">
         <v>110</v>
@@ -13803,13 +13886,13 @@
     </row>
     <row r="338" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
       <c r="F338" s="22" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G338" s="22" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="S338" s="34" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="T338" s="23">
         <v>112</v>
@@ -13820,25 +13903,25 @@
     </row>
     <row r="339" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
       <c r="B339" s="22" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C339" s="22" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="M339" s="22" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="N339" s="22" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O339" s="22" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="P339" s="22" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="S339" s="34" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="T339" s="23">
         <v>112</v>
@@ -13847,42 +13930,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="1.35">
+    <row r="340" spans="1:21" ht="20.7" x14ac:dyDescent="1.35">
       <c r="A340" s="22" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B340" s="22" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C340" s="22" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F340" s="22" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G340" s="22" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H340" s="22" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="I340" s="22" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="M340" s="22" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="N340" s="22" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="O340" s="22" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="P340" s="22" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="S340" s="34" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="T340" s="23">
         <v>115</v>
@@ -13893,13 +13976,13 @@
     </row>
     <row r="341" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
       <c r="Q341" s="22" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="R341" s="22" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="S341" s="34" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="T341" s="23">
         <v>119</v>
@@ -13910,37 +13993,37 @@
     </row>
     <row r="342" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
       <c r="A342" s="22" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B342" s="22" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C342" s="22" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F342" s="22" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G342" s="22" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H342" s="22" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I342" s="22" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J342" s="22" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="O342" s="22" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="P342" s="22" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="S342" s="34" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="T342" s="23">
         <v>116</v>
@@ -13975,7 +14058,7 @@
         <v>467</v>
       </c>
       <c r="S343" s="34" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="T343" s="23">
         <v>116</v>
@@ -13984,11 +14067,475 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="1.35">
-      <c r="T344" s="23" t="s">
-        <v>875</v>
+    <row r="344" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
+      <c r="A344" s="22" t="s">
+        <v>881</v>
+      </c>
+      <c r="D344" s="22" t="s">
+        <v>882</v>
+      </c>
+      <c r="E344" s="22" t="s">
+        <v>882</v>
+      </c>
+      <c r="F344" s="22" t="s">
+        <v>881</v>
+      </c>
+      <c r="G344" s="22" t="s">
+        <v>881</v>
+      </c>
+      <c r="K344" s="22" t="s">
+        <v>881</v>
+      </c>
+      <c r="L344" s="22" t="s">
+        <v>881</v>
+      </c>
+      <c r="O344" s="22" t="s">
+        <v>881</v>
+      </c>
+      <c r="P344" s="22" t="s">
+        <v>881</v>
+      </c>
+      <c r="Q344" s="22" t="s">
+        <v>881</v>
+      </c>
+      <c r="R344" s="22" t="s">
+        <v>881</v>
+      </c>
+      <c r="S344" s="34" t="s">
+        <v>880</v>
+      </c>
+      <c r="T344" s="23">
+        <v>10</v>
       </c>
       <c r="U344" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="345" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="A345" s="22" t="s">
+        <v>884</v>
+      </c>
+      <c r="B345" s="22" t="s">
+        <v>884</v>
+      </c>
+      <c r="C345" s="22" t="s">
+        <v>884</v>
+      </c>
+      <c r="F345" s="22" t="s">
+        <v>884</v>
+      </c>
+      <c r="G345" s="22" t="s">
+        <v>884</v>
+      </c>
+      <c r="H345" s="22" t="s">
+        <v>884</v>
+      </c>
+      <c r="I345" s="22" t="s">
+        <v>884</v>
+      </c>
+      <c r="J345" s="22" t="s">
+        <v>884</v>
+      </c>
+      <c r="S345" s="34" t="s">
+        <v>883</v>
+      </c>
+      <c r="T345" s="23">
+        <v>16</v>
+      </c>
+      <c r="U345" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="346" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
+      <c r="B346" s="22" t="s">
+        <v>886</v>
+      </c>
+      <c r="C346" s="22" t="s">
+        <v>886</v>
+      </c>
+      <c r="S346" s="34" t="s">
+        <v>885</v>
+      </c>
+      <c r="T346" s="23">
+        <v>22</v>
+      </c>
+      <c r="U346" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
+      <c r="B347" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="C347" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="S347" s="34" t="s">
+        <v>885</v>
+      </c>
+      <c r="T347" s="23">
+        <v>22</v>
+      </c>
+      <c r="U347" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="348" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="A348" s="22"/>
+      <c r="D348" s="22"/>
+      <c r="F348" s="22" t="s">
+        <v>705</v>
+      </c>
+      <c r="G348" s="22" t="s">
+        <v>705</v>
+      </c>
+      <c r="H348" s="22" t="s">
+        <v>705</v>
+      </c>
+      <c r="I348" s="22" t="s">
+        <v>705</v>
+      </c>
+      <c r="M348" s="22"/>
+      <c r="S348" s="34" t="s">
+        <v>888</v>
+      </c>
+      <c r="T348" s="23">
+        <v>23</v>
+      </c>
+      <c r="U348" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="349" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="A349" s="22" t="s">
+        <v>889</v>
+      </c>
+      <c r="D349" s="22" t="s">
+        <v>889</v>
+      </c>
+      <c r="E349" s="22" t="s">
+        <v>889</v>
+      </c>
+      <c r="F349" s="22" t="s">
+        <v>889</v>
+      </c>
+      <c r="G349" s="22" t="s">
+        <v>889</v>
+      </c>
+      <c r="H349" s="22" t="s">
+        <v>889</v>
+      </c>
+      <c r="I349" s="22" t="s">
+        <v>889</v>
+      </c>
+      <c r="J349" s="22" t="s">
+        <v>889</v>
+      </c>
+      <c r="M349" s="22" t="s">
+        <v>889</v>
+      </c>
+      <c r="N349" s="22" t="s">
+        <v>889</v>
+      </c>
+      <c r="S349" s="34" t="s">
+        <v>888</v>
+      </c>
+      <c r="T349" s="23">
+        <v>23</v>
+      </c>
+      <c r="U349" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="350" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="A350" s="22" t="s">
+        <v>890</v>
+      </c>
+      <c r="F350" s="22" t="s">
+        <v>890</v>
+      </c>
+      <c r="G350" s="22" t="s">
+        <v>890</v>
+      </c>
+      <c r="H350" s="22" t="s">
+        <v>890</v>
+      </c>
+      <c r="I350" s="22" t="s">
+        <v>890</v>
+      </c>
+      <c r="S350" s="34" t="s">
+        <v>888</v>
+      </c>
+      <c r="T350" s="23">
+        <v>23</v>
+      </c>
+      <c r="U350" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="351" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
+      <c r="A351" s="22" t="s">
+        <v>892</v>
+      </c>
+      <c r="D351" s="22" t="s">
+        <v>892</v>
+      </c>
+      <c r="E351" s="22" t="s">
+        <v>892</v>
+      </c>
+      <c r="F351" s="22" t="s">
+        <v>892</v>
+      </c>
+      <c r="G351" s="22" t="s">
+        <v>892</v>
+      </c>
+      <c r="J351" s="22" t="s">
+        <v>892</v>
+      </c>
+      <c r="K351" s="22" t="s">
+        <v>892</v>
+      </c>
+      <c r="L351" s="22" t="s">
+        <v>892</v>
+      </c>
+      <c r="M351" s="22" t="s">
+        <v>892</v>
+      </c>
+      <c r="N351" s="22" t="s">
+        <v>892</v>
+      </c>
+      <c r="O351" s="22" t="s">
+        <v>892</v>
+      </c>
+      <c r="P351" s="22" t="s">
+        <v>892</v>
+      </c>
+      <c r="Q351" s="22" t="s">
+        <v>892</v>
+      </c>
+      <c r="R351" s="22" t="s">
+        <v>892</v>
+      </c>
+      <c r="S351" s="34" t="s">
+        <v>891</v>
+      </c>
+      <c r="T351" s="23">
+        <v>27</v>
+      </c>
+      <c r="U351" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="352" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
+      <c r="A352" s="22" t="s">
+        <v>893</v>
+      </c>
+      <c r="D352" s="22" t="s">
+        <v>893</v>
+      </c>
+      <c r="E352" s="22" t="s">
+        <v>893</v>
+      </c>
+      <c r="F352" s="22" t="s">
+        <v>893</v>
+      </c>
+      <c r="G352" s="22" t="s">
+        <v>893</v>
+      </c>
+      <c r="J352" s="22" t="s">
+        <v>893</v>
+      </c>
+      <c r="M352" s="22" t="s">
+        <v>893</v>
+      </c>
+      <c r="N352" s="22" t="s">
+        <v>893</v>
+      </c>
+      <c r="O352" s="22" t="s">
+        <v>893</v>
+      </c>
+      <c r="P352" s="22" t="s">
+        <v>893</v>
+      </c>
+      <c r="Q352" s="22" t="s">
+        <v>893</v>
+      </c>
+      <c r="R352" s="22" t="s">
+        <v>893</v>
+      </c>
+      <c r="S352" s="34" t="s">
+        <v>891</v>
+      </c>
+      <c r="T352" s="23">
+        <v>27</v>
+      </c>
+      <c r="U352" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="353" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
+      <c r="K353" s="22" t="s">
+        <v>895</v>
+      </c>
+      <c r="L353" s="22" t="s">
+        <v>895</v>
+      </c>
+      <c r="S353" s="34" t="s">
+        <v>894</v>
+      </c>
+      <c r="T353" s="23">
+        <v>32</v>
+      </c>
+      <c r="U353" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="354" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
+      <c r="A354" s="22" t="s">
+        <v>896</v>
+      </c>
+      <c r="F354" s="22" t="s">
+        <v>896</v>
+      </c>
+      <c r="G354" s="22" t="s">
+        <v>896</v>
+      </c>
+      <c r="H354" s="22" t="s">
+        <v>896</v>
+      </c>
+      <c r="I354" s="22" t="s">
+        <v>896</v>
+      </c>
+      <c r="J354" s="22" t="s">
+        <v>896</v>
+      </c>
+      <c r="M354" s="22" t="s">
+        <v>896</v>
+      </c>
+      <c r="N354" s="22" t="s">
+        <v>896</v>
+      </c>
+      <c r="O354" s="22" t="s">
+        <v>896</v>
+      </c>
+      <c r="P354" s="22" t="s">
+        <v>896</v>
+      </c>
+      <c r="S354" s="34" t="s">
+        <v>894</v>
+      </c>
+      <c r="T354" s="23">
+        <v>32</v>
+      </c>
+      <c r="U354" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="355" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
+      <c r="Q355" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="R355" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="S355" s="34" t="s">
+        <v>897</v>
+      </c>
+      <c r="T355" s="23">
+        <v>33</v>
+      </c>
+      <c r="U355" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="356" spans="1:21" ht="62.1" x14ac:dyDescent="1.35">
+      <c r="F356" s="22" t="s">
+        <v>899</v>
+      </c>
+      <c r="G356" s="22" t="s">
+        <v>899</v>
+      </c>
+      <c r="Q356" s="22" t="s">
+        <v>899</v>
+      </c>
+      <c r="R356" s="22" t="s">
+        <v>899</v>
+      </c>
+      <c r="S356" s="34" t="s">
+        <v>897</v>
+      </c>
+      <c r="T356" s="23">
+        <v>33</v>
+      </c>
+      <c r="U356" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="357" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="B357" s="22" t="s">
+        <v>901</v>
+      </c>
+      <c r="C357" s="22" t="s">
+        <v>901</v>
+      </c>
+      <c r="S357" s="34" t="s">
+        <v>900</v>
+      </c>
+      <c r="T357" s="23">
+        <v>36</v>
+      </c>
+      <c r="U357" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="358" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="O358" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="P358" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="S358" s="34" t="s">
+        <v>902</v>
+      </c>
+      <c r="T358" s="23">
+        <v>37</v>
+      </c>
+      <c r="U358" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="359" spans="1:21" ht="41.4" x14ac:dyDescent="1.35">
+      <c r="C359" s="22" t="s">
+        <v>904</v>
+      </c>
+      <c r="D359" s="22" t="s">
+        <v>904</v>
+      </c>
+      <c r="E359" s="22" t="s">
+        <v>904</v>
+      </c>
+      <c r="K359" s="22" t="s">
+        <v>904</v>
+      </c>
+      <c r="L359" s="22" t="s">
+        <v>904</v>
+      </c>
+      <c r="S359" s="34" t="s">
+        <v>903</v>
+      </c>
+      <c r="T359" s="23">
+        <v>44</v>
+      </c>
+      <c r="U359" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="360" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="T360" s="23" t="s">
+        <v>905</v>
+      </c>
+      <c r="U360" s="24">
         <v>6</v>
       </c>
     </row>
@@ -16393,128 +16940,128 @@
     </row>
     <row r="69" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="32" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G69" s="32" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H69" s="32" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I69" s="32" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J69" s="32" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L69" s="32" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U69" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="70" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="E70" s="32" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F70" s="32" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="S70" s="32" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="U70" s="32" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="71" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="C71" s="32" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D71" s="32" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E71" s="32" t="s">
+        <v>564</v>
+      </c>
+      <c r="F71" s="32" t="s">
+        <v>564</v>
+      </c>
+      <c r="O71" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="F71" s="32" t="s">
+      <c r="P71" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="O71" s="32" t="s">
-        <v>566</v>
-      </c>
-      <c r="P71" s="32" t="s">
-        <v>566</v>
-      </c>
       <c r="Q71" s="32" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="R71" s="32" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U71" s="32" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="72" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="E72" s="32" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F72" s="32" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G72" s="32" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H72" s="32" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M72" s="32" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N72" s="32" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="U72" s="32" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="73" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="32" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G73" s="32" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H73" s="32" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I73" s="32" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J73" s="32" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="S73" s="32" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="T73" s="32" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="U73" s="32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="74" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="S74" s="32" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="T74" s="32" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="U74" s="32" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="75" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -16522,7 +17069,7 @@
         <v>77</v>
       </c>
       <c r="U75" s="32" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="76" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -16533,80 +17080,80 @@
         <v>77</v>
       </c>
       <c r="U76" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="77" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="F77" s="32" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="S77" s="32" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="U77" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="78" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="32" t="s">
+        <v>692</v>
+      </c>
+      <c r="C78" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="C78" s="32" t="s">
-        <v>694</v>
-      </c>
       <c r="D78" s="32" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E78" s="32" t="s">
+        <v>692</v>
+      </c>
+      <c r="F78" s="32" t="s">
+        <v>692</v>
+      </c>
+      <c r="G78" s="32" t="s">
+        <v>692</v>
+      </c>
+      <c r="H78" s="32" t="s">
+        <v>692</v>
+      </c>
+      <c r="I78" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="F78" s="32" t="s">
+      <c r="J78" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="G78" s="32" t="s">
+      <c r="K78" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="H78" s="32" t="s">
+      <c r="L78" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="I78" s="32" t="s">
-        <v>694</v>
-      </c>
-      <c r="J78" s="32" t="s">
-        <v>694</v>
-      </c>
-      <c r="K78" s="32" t="s">
-        <v>694</v>
-      </c>
-      <c r="L78" s="32" t="s">
-        <v>694</v>
-      </c>
       <c r="M78" s="32" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N78" s="32" t="s">
+        <v>692</v>
+      </c>
+      <c r="O78" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="O78" s="32" t="s">
-        <v>694</v>
-      </c>
       <c r="P78" s="32" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="Q78" s="32" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="R78" s="32" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="S78" s="32" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="T78" s="32" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="U78" s="32" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="79" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -16635,7 +17182,7 @@
         <v>90</v>
       </c>
       <c r="U79" s="32" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="80" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -16643,43 +17190,43 @@
         <v>121</v>
       </c>
       <c r="U80" s="32" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="81" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="S81" s="32" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="U81" s="32" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="82" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="E82" s="32" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F82" s="32" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="O82" s="32" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="S82" s="32" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="U82" s="32" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="83" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="E83" s="32" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F83" s="32" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="U83" s="32" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="84" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -16687,7 +17234,7 @@
         <v>77</v>
       </c>
       <c r="D84" s="32" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G84" s="31" t="s">
         <v>77</v>
@@ -16708,45 +17255,45 @@
         <v>76</v>
       </c>
       <c r="U84" s="32" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="85" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="32" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F85" s="32" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G85" s="32" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H85" s="32" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="M85" s="32" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="N85" s="32" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="Q85" s="32" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="R85" s="32" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="S85" s="32" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="T85" s="32" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="U85" s="32" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
   </sheetData>
